--- a/STATE MACHINE.xlsx
+++ b/STATE MACHINE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesgarvey/git/MI-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE91863-8E8F-D749-AE38-711E7D27B898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C488D11-CDDA-BC41-AA88-2F8A5BE141CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="17500" xr2:uid="{F0AEFCE0-6CDA-974D-A970-87333E43A2B1}"/>
   </bookViews>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="122">
   <si>
     <t>MANUAL</t>
   </si>
@@ -243,9 +221,6 @@
     <t>Via CC for speed</t>
   </si>
   <si>
-    <t>MIDI CC received</t>
-  </si>
-  <si>
     <t>Via pot wiggle of speed pot</t>
   </si>
   <si>
@@ -400,13 +375,40 @@
   </si>
   <si>
     <t>Via Local Control Channel Mode message or Via pot wiggle of speed pot</t>
+  </si>
+  <si>
+    <t>Via timeout and two rising EXTI detected</t>
+  </si>
+  <si>
+    <t>x5_CC (Not a Preset)</t>
+  </si>
+  <si>
+    <t>x4_CC + TAP</t>
+  </si>
+  <si>
+    <t>x4_CC + CLK</t>
+  </si>
+  <si>
+    <t>x4_CC + MIDI_CLK</t>
+  </si>
+  <si>
+    <t>CC received</t>
+  </si>
+  <si>
+    <t>All current 4xCC are not speed, and two switch presses are received</t>
+  </si>
+  <si>
+    <t>All current 4xCC are not speed, and two rising EXTI are received</t>
+  </si>
+  <si>
+    <t>All current 4xCC are not speed, and 25 MIDI CLK status bytes are received</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -470,8 +472,15 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,14 +511,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -521,6 +524,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -536,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -568,20 +593,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620622B0-F6C9-6649-A787-F6C82E3B46E8}">
-  <dimension ref="A1:BT182"/>
+  <dimension ref="A1:BY182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="BW4" sqref="BW4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,7 +984,8 @@
     <col min="23" max="23" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.1640625" customWidth="1"/>
     <col min="25" max="27" width="15.83203125" customWidth="1"/>
-    <col min="28" max="30" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.5" customWidth="1"/>
+    <col min="29" max="30" width="19.5" bestFit="1" customWidth="1"/>
     <col min="31" max="33" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="36" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="39" width="15.83203125" customWidth="1"/>
@@ -963,15 +1000,18 @@
     <col min="67" max="69" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="70" max="71" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="31" customWidth="1"/>
-    <col min="73" max="74" width="15.83203125" customWidth="1"/>
+    <col min="73" max="73" width="18.5" customWidth="1"/>
+    <col min="74" max="74" width="15.83203125" customWidth="1"/>
+    <col min="75" max="75" width="12.83203125" customWidth="1"/>
+    <col min="76" max="76" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T1" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:72" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T1" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:76" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -988,9 +1028,9 @@
       <c r="N2" s="4"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="T2" s="17"/>
-    </row>
-    <row r="3" spans="1:72" ht="25" x14ac:dyDescent="0.3">
+      <c r="T2" s="18"/>
+    </row>
+    <row r="3" spans="1:76" ht="25" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1008,27 +1048,27 @@
       <c r="O3" s="7"/>
       <c r="P3" s="3"/>
       <c r="T3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-    </row>
-    <row r="4" spans="1:72" ht="75" x14ac:dyDescent="0.3">
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="24"/>
+    </row>
+    <row r="4" spans="1:76" ht="75" x14ac:dyDescent="0.3">
       <c r="Q4" s="3" t="s">
         <v>55</v>
       </c>
@@ -1038,172 +1078,183 @@
       <c r="S4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="1" t="str" cm="1">
-        <f t="array" ref="T4:BT4">TRANSPOSE(R5:R57)</f>
-        <v>MANUAL</v>
-      </c>
-      <c r="U4" s="1" t="str">
-        <v>MANUAL+TAP</v>
-      </c>
-      <c r="V4" s="1" t="str">
-        <v>MANUAL+CLK</v>
-      </c>
-      <c r="W4" s="1" t="str">
-        <v>MANUAL+MIDI_CLK</v>
-      </c>
-      <c r="X4" s="1" t="str">
-        <v>MANUAL+1x_CC</v>
-      </c>
-      <c r="Y4" s="1" t="str">
-        <v>MANUAL+2x_CC</v>
-      </c>
-      <c r="Z4" s="1" t="str">
-        <v>MANUAL+3x_CC</v>
-      </c>
-      <c r="AA4" s="1" t="str">
-        <v>MANUAL+4x_CC</v>
-      </c>
-      <c r="AB4" s="1" t="str">
-        <v>MANUAL+TAP+1x_CC</v>
-      </c>
-      <c r="AC4" s="1" t="str">
-        <v>MANUAL+TAP+2x_CC</v>
-      </c>
-      <c r="AD4" s="1" t="str">
-        <v>MANUAL+TAP+3x_CC</v>
-      </c>
-      <c r="AE4" s="1" t="str">
-        <v>MANUAL+CLK+1x_CC</v>
-      </c>
-      <c r="AF4" s="1" t="str">
-        <v>MANUAL+CLK+2x_CC</v>
-      </c>
-      <c r="AG4" s="1" t="str">
-        <v>MANUAL+CLK+3x_CC</v>
-      </c>
-      <c r="AH4" s="1" t="str">
-        <v>MANUAL+MIDI_CLK+1x_CC</v>
-      </c>
-      <c r="AI4" s="1" t="str">
-        <v>MANUAL+MIDI_CLK+2x_CC</v>
-      </c>
-      <c r="AJ4" s="1" t="str">
-        <v>MANUAL+MIDI_CLK+3x_CC</v>
-      </c>
-      <c r="AK4" s="1" t="str">
-        <v>PRESET</v>
-      </c>
-      <c r="AL4" s="1" t="str">
-        <v>PRESET+TAP</v>
-      </c>
-      <c r="AM4" s="1" t="str">
-        <v>PRESET+CLK</v>
-      </c>
-      <c r="AN4" s="1" t="str">
-        <v>PRESET+MIDI_CLK</v>
-      </c>
-      <c r="AO4" s="1" t="str">
-        <v>PRESET+1x_MAN</v>
-      </c>
-      <c r="AP4" s="1" t="str">
-        <v>PRESET+2x_MAN</v>
-      </c>
-      <c r="AQ4" s="1" t="str">
-        <v>PRESET+3x_MAN</v>
-      </c>
-      <c r="AR4" s="1" t="str">
-        <v>PRESET+4x_MAN</v>
-      </c>
-      <c r="AS4" s="1" t="str">
-        <v>PRESET+1x_CC</v>
-      </c>
-      <c r="AT4" s="1" t="str">
-        <v>PRESET+2x_CC</v>
-      </c>
-      <c r="AU4" s="1" t="str">
-        <v>PRESET+3x_CC</v>
-      </c>
-      <c r="AV4" s="1" t="str">
-        <v>PRESET+4x_CC</v>
-      </c>
-      <c r="AW4" s="1" t="str">
-        <v>PRESET+1x_MAN+1x_CC</v>
-      </c>
-      <c r="AX4" s="1" t="str">
-        <v>PRESET+2x_MAN+1x_CC</v>
-      </c>
-      <c r="AY4" s="1" t="str">
-        <v>PRESET+1x_MAN+2x_CC</v>
-      </c>
-      <c r="AZ4" s="1" t="str">
-        <v>PRESET+2x_MAN+2x_CC</v>
-      </c>
-      <c r="BA4" s="1" t="str">
-        <v>PRESET+3x_MAN+1x_CC</v>
-      </c>
-      <c r="BB4" s="1" t="str">
-        <v>PRESET+1x_MAN+3x_CC</v>
-      </c>
-      <c r="BC4" s="1" t="str">
-        <v>PRESET+TAP+1x_MAN</v>
-      </c>
-      <c r="BD4" s="1" t="str">
-        <v>PRESET+TAP+2x_MAN</v>
-      </c>
-      <c r="BE4" s="1" t="str">
-        <v>PRESET+TAP+3x_MAN</v>
-      </c>
-      <c r="BF4" s="1" t="str">
-        <v>PRESET+TAP+1x_MAN+1x_CC</v>
-      </c>
-      <c r="BG4" s="1" t="str">
-        <v>PRESET+TAP+2x_MAN+1x_CC</v>
-      </c>
-      <c r="BH4" s="1" t="str">
-        <v>PRESET+TAP+1x_MAN+2x_CC</v>
-      </c>
-      <c r="BI4" s="1" t="str">
-        <v>PRESET+CLK+1x_MAN</v>
-      </c>
-      <c r="BJ4" s="1" t="str">
-        <v>PRESET+CLK+2x_MAN</v>
-      </c>
-      <c r="BK4" s="1" t="str">
-        <v>PRESET+CLK+3x_MAN</v>
-      </c>
-      <c r="BL4" s="1" t="str">
-        <v>PRESET+CLK+1x_MAN+1x_CC</v>
-      </c>
-      <c r="BM4" s="1" t="str">
-        <v>PRESET+CLK+2x_MAN+1x_CC</v>
-      </c>
-      <c r="BN4" s="1" t="str">
-        <v>PRESET+CLK+1x_MAN+2x_CC</v>
-      </c>
-      <c r="BO4" s="1" t="str">
-        <v>PRESET+MIDI_CLK+1x_MAN</v>
-      </c>
-      <c r="BP4" s="1" t="str">
-        <v>PRESET+MIDI_CLK+2x_MAN</v>
-      </c>
-      <c r="BQ4" s="1" t="str">
-        <v>PRESET+MIDI_CLK+3x_MAN</v>
-      </c>
-      <c r="BR4" s="1" t="str">
-        <v>PRESET+MIDI_CLK+1x_MAN+1x_CC</v>
-      </c>
-      <c r="BS4" s="1" t="str">
-        <v>PRESET+MIDI_CLK+2x_MAN+1x_CC</v>
-      </c>
-      <c r="BT4" s="1" t="str">
-        <v>PRESET+MIDI_CLK+1x_MAN+2x_CC</v>
-      </c>
-    </row>
-    <row r="5" spans="1:72" ht="25" x14ac:dyDescent="0.2">
+      <c r="T4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:76" ht="25" x14ac:dyDescent="0.2">
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S5">
@@ -1211,16 +1262,16 @@
       </c>
       <c r="T5" s="8"/>
       <c r="U5" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="Y5" s="13"/>
       <c r="Z5" s="13"/>
@@ -1235,7 +1286,7 @@
       <c r="AI5" s="13"/>
       <c r="AJ5" s="13"/>
       <c r="AK5" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL5" s="13"/>
       <c r="AM5" s="13"/>
@@ -1271,36 +1322,40 @@
       <c r="BQ5" s="13"/>
       <c r="BR5" s="13"/>
       <c r="BS5" s="13"/>
-      <c r="BT5" s="21"/>
-    </row>
-    <row r="6" spans="1:72" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BT5" s="13"/>
+      <c r="BU5" s="25"/>
+      <c r="BV5" s="25"/>
+      <c r="BW5" s="25"/>
+      <c r="BX5" s="25"/>
+    </row>
+    <row r="6" spans="1:76" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q6">
         <v>1</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="S6">
         <v>1</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U6" s="14"/>
       <c r="V6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
       <c r="AB6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC6" s="13"/>
       <c r="AD6" s="13"/>
@@ -1311,7 +1366,7 @@
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL6" s="13"/>
       <c r="AM6" s="13"/>
@@ -1346,28 +1401,32 @@
       <c r="BP6" s="13"/>
       <c r="BQ6" s="13"/>
       <c r="BR6" s="13"/>
-      <c r="BS6" s="21"/>
-      <c r="BT6" s="21"/>
-    </row>
-    <row r="7" spans="1:72" ht="25" x14ac:dyDescent="0.2">
+      <c r="BS6" s="13"/>
+      <c r="BT6" s="13"/>
+      <c r="BU6" s="25"/>
+      <c r="BV6" s="25"/>
+      <c r="BW6" s="25"/>
+      <c r="BX6" s="25"/>
+    </row>
+    <row r="7" spans="1:76" ht="25" x14ac:dyDescent="0.2">
       <c r="Q7">
         <v>2</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S7">
         <v>1</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V7" s="14"/>
       <c r="W7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>56</v>
@@ -1379,7 +1438,7 @@
       <c r="AC7" s="13"/>
       <c r="AD7" s="13"/>
       <c r="AE7" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF7" s="13"/>
       <c r="AG7" s="13"/>
@@ -1387,7 +1446,7 @@
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
       <c r="AK7" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL7" s="13"/>
       <c r="AM7" s="13"/>
@@ -1421,28 +1480,32 @@
       <c r="BO7" s="13"/>
       <c r="BP7" s="13"/>
       <c r="BQ7" s="13"/>
-      <c r="BR7" s="21"/>
-      <c r="BS7" s="21"/>
-      <c r="BT7" s="21"/>
-    </row>
-    <row r="8" spans="1:72" ht="25" x14ac:dyDescent="0.2">
+      <c r="BR7" s="13"/>
+      <c r="BS7" s="13"/>
+      <c r="BT7" s="13"/>
+      <c r="BU7" s="25"/>
+      <c r="BV7" s="25"/>
+      <c r="BW7" s="25"/>
+      <c r="BX7" s="25"/>
+    </row>
+    <row r="8" spans="1:76" ht="25" x14ac:dyDescent="0.2">
       <c r="Q8">
         <v>3</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="S8">
         <v>1</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W8" s="14"/>
       <c r="X8" s="11" t="s">
@@ -1458,12 +1521,12 @@
       <c r="AF8" s="13"/>
       <c r="AG8" s="13"/>
       <c r="AH8" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
       <c r="AK8" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -1496,50 +1559,54 @@
       <c r="BN8" s="13"/>
       <c r="BO8" s="13"/>
       <c r="BP8" s="13"/>
-      <c r="BQ8" s="21"/>
-      <c r="BR8" s="21"/>
-      <c r="BS8" s="21"/>
-      <c r="BT8" s="21"/>
-    </row>
-    <row r="9" spans="1:72" ht="25" x14ac:dyDescent="0.2">
+      <c r="BQ8" s="13"/>
+      <c r="BR8" s="13"/>
+      <c r="BS8" s="13"/>
+      <c r="BT8" s="13"/>
+      <c r="BU8" s="25"/>
+      <c r="BV8" s="25"/>
+      <c r="BW8" s="25"/>
+      <c r="BX8" s="25"/>
+    </row>
+    <row r="9" spans="1:76" ht="25" x14ac:dyDescent="0.2">
       <c r="Q9">
         <v>4</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="S9">
         <v>5</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z9" s="13"/>
       <c r="AA9" s="13"/>
       <c r="AB9" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF9" s="13"/>
       <c r="AG9" s="13"/>
       <c r="AH9" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL9" s="13"/>
       <c r="AM9" s="13"/>
@@ -1571,17 +1638,21 @@
       <c r="BM9" s="13"/>
       <c r="BN9" s="13"/>
       <c r="BO9" s="13"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21"/>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="21"/>
-    </row>
-    <row r="10" spans="1:72" ht="25" x14ac:dyDescent="0.2">
+      <c r="BP9" s="13"/>
+      <c r="BQ9" s="13"/>
+      <c r="BR9" s="13"/>
+      <c r="BS9" s="13"/>
+      <c r="BT9" s="13"/>
+      <c r="BU9" s="25"/>
+      <c r="BV9" s="25"/>
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25"/>
+    </row>
+    <row r="10" spans="1:76" ht="25" x14ac:dyDescent="0.2">
       <c r="Q10">
         <v>5</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="S10">
@@ -1594,36 +1665,36 @@
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y10" s="14"/>
       <c r="Z10" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA10" s="13"/>
       <c r="AB10" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC10" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD10" s="13"/>
       <c r="AE10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF10" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="AF10" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="AG10" s="13"/>
       <c r="AH10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI10" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="AI10" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="13"/>
       <c r="AM10" s="13"/>
@@ -1654,18 +1725,22 @@
       <c r="BL10" s="13"/>
       <c r="BM10" s="13"/>
       <c r="BN10" s="13"/>
-      <c r="BO10" s="21"/>
-      <c r="BP10" s="21"/>
-      <c r="BQ10" s="21"/>
-      <c r="BR10" s="21"/>
-      <c r="BS10" s="21"/>
-      <c r="BT10" s="21"/>
-    </row>
-    <row r="11" spans="1:72" ht="25" x14ac:dyDescent="0.2">
+      <c r="BO10" s="13"/>
+      <c r="BP10" s="13"/>
+      <c r="BQ10" s="13"/>
+      <c r="BR10" s="13"/>
+      <c r="BS10" s="13"/>
+      <c r="BT10" s="13"/>
+      <c r="BU10" s="25"/>
+      <c r="BV10" s="25"/>
+      <c r="BW10" s="25"/>
+      <c r="BX10" s="25"/>
+    </row>
+    <row r="11" spans="1:76" ht="25" x14ac:dyDescent="0.2">
       <c r="Q11">
         <v>6</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="22" t="s">
         <v>38</v>
       </c>
       <c r="S11">
@@ -1679,35 +1754,35 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z11" s="14"/>
       <c r="AA11" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB11" s="13"/>
       <c r="AC11" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD11" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE11" s="13"/>
       <c r="AF11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG11" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="AG11" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="AH11" s="13"/>
       <c r="AI11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ11" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AJ11" s="11" t="s">
+      <c r="AK11" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="AK11" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="AL11" s="13"/>
       <c r="AM11" s="13"/>
@@ -1737,19 +1812,23 @@
       <c r="BK11" s="13"/>
       <c r="BL11" s="13"/>
       <c r="BM11" s="13"/>
-      <c r="BN11" s="21"/>
-      <c r="BO11" s="21"/>
-      <c r="BP11" s="21"/>
-      <c r="BQ11" s="21"/>
-      <c r="BR11" s="21"/>
-      <c r="BS11" s="21"/>
-      <c r="BT11" s="21"/>
-    </row>
-    <row r="12" spans="1:72" ht="25" x14ac:dyDescent="0.2">
+      <c r="BN11" s="13"/>
+      <c r="BO11" s="13"/>
+      <c r="BP11" s="13"/>
+      <c r="BQ11" s="13"/>
+      <c r="BR11" s="13"/>
+      <c r="BS11" s="13"/>
+      <c r="BT11" s="13"/>
+      <c r="BU11" s="25"/>
+      <c r="BV11" s="25"/>
+      <c r="BW11" s="25"/>
+      <c r="BX11" s="25"/>
+    </row>
+    <row r="12" spans="1:76" ht="37" x14ac:dyDescent="0.2">
       <c r="Q12">
         <v>7</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="S12">
@@ -1764,26 +1843,26 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA12" s="14"/>
       <c r="AB12" s="13"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE12" s="13"/>
       <c r="AF12" s="13"/>
       <c r="AG12" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK12" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL12" s="13"/>
       <c r="AM12" s="13"/>
@@ -1812,20 +1891,32 @@
       <c r="BJ12" s="13"/>
       <c r="BK12" s="13"/>
       <c r="BL12" s="13"/>
-      <c r="BM12" s="21"/>
-      <c r="BN12" s="21"/>
-      <c r="BO12" s="21"/>
-      <c r="BP12" s="21"/>
-      <c r="BQ12" s="21"/>
-      <c r="BR12" s="21"/>
-      <c r="BS12" s="21"/>
-      <c r="BT12" s="21"/>
-    </row>
-    <row r="13" spans="1:72" ht="37" x14ac:dyDescent="0.2">
+      <c r="BM12" s="13"/>
+      <c r="BN12" s="13"/>
+      <c r="BO12" s="13"/>
+      <c r="BP12" s="13"/>
+      <c r="BQ12" s="13"/>
+      <c r="BR12" s="13"/>
+      <c r="BS12" s="13"/>
+      <c r="BT12" s="13"/>
+      <c r="BU12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BV12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="BW12" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX12" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:76" ht="37" x14ac:dyDescent="0.2">
       <c r="Q13">
         <v>8</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="S13">
@@ -1835,12 +1926,12 @@
         <v>58</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
       <c r="X13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y13" s="11" t="s">
         <v>60</v>
@@ -1849,23 +1940,23 @@
       <c r="AA13" s="13"/>
       <c r="AB13" s="14"/>
       <c r="AC13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AD13" s="11" t="s">
+      <c r="AE13" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="AE13" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="AF13" s="13"/>
       <c r="AG13" s="13"/>
       <c r="AH13" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
       <c r="AK13" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL13" s="13"/>
       <c r="AM13" s="13"/>
@@ -1893,21 +1984,25 @@
       <c r="BI13" s="13"/>
       <c r="BJ13" s="13"/>
       <c r="BK13" s="13"/>
-      <c r="BL13" s="21"/>
-      <c r="BM13" s="21"/>
-      <c r="BN13" s="21"/>
-      <c r="BO13" s="21"/>
-      <c r="BP13" s="21"/>
-      <c r="BQ13" s="21"/>
-      <c r="BR13" s="21"/>
-      <c r="BS13" s="21"/>
-      <c r="BT13" s="21"/>
-    </row>
-    <row r="14" spans="1:72" ht="37" x14ac:dyDescent="0.2">
+      <c r="BL13" s="13"/>
+      <c r="BM13" s="13"/>
+      <c r="BN13" s="13"/>
+      <c r="BO13" s="13"/>
+      <c r="BP13" s="13"/>
+      <c r="BQ13" s="13"/>
+      <c r="BR13" s="13"/>
+      <c r="BS13" s="13"/>
+      <c r="BT13" s="13"/>
+      <c r="BU13" s="16"/>
+      <c r="BV13" s="16"/>
+      <c r="BW13" s="16"/>
+      <c r="BX13" s="16"/>
+    </row>
+    <row r="14" spans="1:76" ht="37" x14ac:dyDescent="0.2">
       <c r="Q14">
         <v>9</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="S14">
@@ -1921,31 +2016,31 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z14" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AA14" s="13"/>
       <c r="AB14" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC14" s="14"/>
       <c r="AD14" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE14" s="13"/>
       <c r="AF14" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG14" s="13"/>
       <c r="AH14" s="13"/>
       <c r="AI14" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ14" s="13"/>
       <c r="AK14" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL14" s="13"/>
       <c r="AM14" s="13"/>
@@ -1972,22 +2067,26 @@
       <c r="BH14" s="13"/>
       <c r="BI14" s="13"/>
       <c r="BJ14" s="13"/>
-      <c r="BK14" s="21"/>
-      <c r="BL14" s="21"/>
-      <c r="BM14" s="21"/>
-      <c r="BN14" s="21"/>
-      <c r="BO14" s="21"/>
-      <c r="BP14" s="21"/>
-      <c r="BQ14" s="21"/>
-      <c r="BR14" s="21"/>
-      <c r="BS14" s="21"/>
-      <c r="BT14" s="21"/>
-    </row>
-    <row r="15" spans="1:72" ht="25" x14ac:dyDescent="0.2">
+      <c r="BK14" s="13"/>
+      <c r="BL14" s="13"/>
+      <c r="BM14" s="13"/>
+      <c r="BN14" s="13"/>
+      <c r="BO14" s="13"/>
+      <c r="BP14" s="13"/>
+      <c r="BQ14" s="13"/>
+      <c r="BR14" s="13"/>
+      <c r="BS14" s="13"/>
+      <c r="BT14" s="13"/>
+      <c r="BU14" s="16"/>
+      <c r="BV14" s="16"/>
+      <c r="BW14" s="16"/>
+      <c r="BX14" s="16"/>
+    </row>
+    <row r="15" spans="1:76" ht="25" x14ac:dyDescent="0.2">
       <c r="Q15">
         <v>10</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="22" t="s">
         <v>42</v>
       </c>
       <c r="S15">
@@ -2002,28 +2101,28 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
       <c r="Z15" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA15" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AB15" s="13"/>
       <c r="AC15" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD15" s="14"/>
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
       <c r="AG15" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AH15" s="13"/>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK15" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL15" s="13"/>
       <c r="AM15" s="13"/>
@@ -2049,23 +2148,27 @@
       <c r="BG15" s="13"/>
       <c r="BH15" s="13"/>
       <c r="BI15" s="13"/>
-      <c r="BJ15" s="21"/>
-      <c r="BK15" s="21"/>
-      <c r="BL15" s="21"/>
-      <c r="BM15" s="21"/>
-      <c r="BN15" s="21"/>
-      <c r="BO15" s="21"/>
-      <c r="BP15" s="21"/>
-      <c r="BQ15" s="21"/>
-      <c r="BR15" s="21"/>
-      <c r="BS15" s="21"/>
-      <c r="BT15" s="21"/>
-    </row>
-    <row r="16" spans="1:72" ht="25" x14ac:dyDescent="0.2">
+      <c r="BJ15" s="13"/>
+      <c r="BK15" s="13"/>
+      <c r="BL15" s="13"/>
+      <c r="BM15" s="13"/>
+      <c r="BN15" s="13"/>
+      <c r="BO15" s="13"/>
+      <c r="BP15" s="13"/>
+      <c r="BQ15" s="13"/>
+      <c r="BR15" s="13"/>
+      <c r="BS15" s="13"/>
+      <c r="BT15" s="13"/>
+      <c r="BU15" s="16"/>
+      <c r="BV15" s="16"/>
+      <c r="BW15" s="16"/>
+      <c r="BX15" s="16"/>
+    </row>
+    <row r="16" spans="1:76" ht="25" x14ac:dyDescent="0.2">
       <c r="Q16">
         <v>11</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="S16">
@@ -2076,11 +2179,11 @@
       </c>
       <c r="U16" s="13"/>
       <c r="V16" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W16" s="13"/>
       <c r="X16" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y16" s="11" t="s">
         <v>60</v>
@@ -2088,22 +2191,22 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
       <c r="AB16" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC16" s="13"/>
       <c r="AD16" s="10"/>
       <c r="AE16" s="14"/>
       <c r="AF16" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG16" s="13"/>
       <c r="AH16" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="13"/>
       <c r="AK16" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL16" s="13"/>
       <c r="AM16" s="13"/>
@@ -2128,24 +2231,28 @@
       <c r="BF16" s="13"/>
       <c r="BG16" s="13"/>
       <c r="BH16" s="13"/>
-      <c r="BI16" s="21"/>
-      <c r="BJ16" s="21"/>
-      <c r="BK16" s="21"/>
-      <c r="BL16" s="21"/>
-      <c r="BM16" s="21"/>
-      <c r="BN16" s="21"/>
-      <c r="BO16" s="21"/>
-      <c r="BP16" s="21"/>
-      <c r="BQ16" s="21"/>
-      <c r="BR16" s="21"/>
-      <c r="BS16" s="21"/>
-      <c r="BT16" s="21"/>
-    </row>
-    <row r="17" spans="17:72" ht="25" x14ac:dyDescent="0.2">
+      <c r="BI16" s="13"/>
+      <c r="BJ16" s="13"/>
+      <c r="BK16" s="13"/>
+      <c r="BL16" s="13"/>
+      <c r="BM16" s="13"/>
+      <c r="BN16" s="13"/>
+      <c r="BO16" s="13"/>
+      <c r="BP16" s="13"/>
+      <c r="BQ16" s="13"/>
+      <c r="BR16" s="13"/>
+      <c r="BS16" s="13"/>
+      <c r="BT16" s="13"/>
+      <c r="BU16" s="16"/>
+      <c r="BV16" s="16"/>
+      <c r="BW16" s="16"/>
+      <c r="BX16" s="16"/>
+    </row>
+    <row r="17" spans="17:76" ht="25" x14ac:dyDescent="0.2">
       <c r="Q17">
         <v>12</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="S17">
@@ -2159,7 +2266,7 @@
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z17" s="11" t="s">
         <v>60</v>
@@ -2167,23 +2274,23 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD17" s="13"/>
       <c r="AE17" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF17" s="14"/>
       <c r="AG17" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH17" s="13"/>
       <c r="AI17" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ17" s="13"/>
       <c r="AK17" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL17" s="13"/>
       <c r="AM17" s="13"/>
@@ -2207,25 +2314,29 @@
       <c r="BE17" s="13"/>
       <c r="BF17" s="13"/>
       <c r="BG17" s="13"/>
-      <c r="BH17" s="21"/>
-      <c r="BI17" s="21"/>
-      <c r="BJ17" s="21"/>
-      <c r="BK17" s="21"/>
-      <c r="BL17" s="21"/>
-      <c r="BM17" s="21"/>
-      <c r="BN17" s="21"/>
-      <c r="BO17" s="21"/>
-      <c r="BP17" s="21"/>
-      <c r="BQ17" s="21"/>
-      <c r="BR17" s="21"/>
-      <c r="BS17" s="21"/>
-      <c r="BT17" s="21"/>
-    </row>
-    <row r="18" spans="17:72" ht="25" x14ac:dyDescent="0.2">
+      <c r="BH17" s="13"/>
+      <c r="BI17" s="13"/>
+      <c r="BJ17" s="13"/>
+      <c r="BK17" s="13"/>
+      <c r="BL17" s="13"/>
+      <c r="BM17" s="13"/>
+      <c r="BN17" s="13"/>
+      <c r="BO17" s="13"/>
+      <c r="BP17" s="13"/>
+      <c r="BQ17" s="13"/>
+      <c r="BR17" s="13"/>
+      <c r="BS17" s="13"/>
+      <c r="BT17" s="13"/>
+      <c r="BU17" s="16"/>
+      <c r="BV17" s="16"/>
+      <c r="BW17" s="16"/>
+      <c r="BX17" s="16"/>
+    </row>
+    <row r="18" spans="17:76" ht="25" x14ac:dyDescent="0.2">
       <c r="Q18">
         <v>13</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="R18" s="22" t="s">
         <v>45</v>
       </c>
       <c r="S18">
@@ -2240,7 +2351,7 @@
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA18" s="11" t="s">
         <v>60</v>
@@ -2248,20 +2359,20 @@
       <c r="AB18" s="13"/>
       <c r="AC18" s="13"/>
       <c r="AD18" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE18" s="13"/>
       <c r="AF18" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG18" s="14"/>
       <c r="AH18" s="13"/>
       <c r="AI18" s="13"/>
       <c r="AJ18" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK18" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL18" s="13"/>
       <c r="AM18" s="13"/>
@@ -2284,26 +2395,30 @@
       <c r="BD18" s="13"/>
       <c r="BE18" s="13"/>
       <c r="BF18" s="13"/>
-      <c r="BG18" s="21"/>
-      <c r="BH18" s="21"/>
-      <c r="BI18" s="21"/>
-      <c r="BJ18" s="21"/>
-      <c r="BK18" s="21"/>
-      <c r="BL18" s="21"/>
-      <c r="BM18" s="21"/>
-      <c r="BN18" s="21"/>
-      <c r="BO18" s="21"/>
-      <c r="BP18" s="21"/>
-      <c r="BQ18" s="21"/>
-      <c r="BR18" s="21"/>
-      <c r="BS18" s="21"/>
-      <c r="BT18" s="21"/>
-    </row>
-    <row r="19" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="BG18" s="13"/>
+      <c r="BH18" s="13"/>
+      <c r="BI18" s="13"/>
+      <c r="BJ18" s="13"/>
+      <c r="BK18" s="13"/>
+      <c r="BL18" s="13"/>
+      <c r="BM18" s="13"/>
+      <c r="BN18" s="13"/>
+      <c r="BO18" s="13"/>
+      <c r="BP18" s="13"/>
+      <c r="BQ18" s="13"/>
+      <c r="BR18" s="13"/>
+      <c r="BS18" s="13"/>
+      <c r="BT18" s="13"/>
+      <c r="BU18" s="16"/>
+      <c r="BV18" s="16"/>
+      <c r="BW18" s="16"/>
+      <c r="BX18" s="16"/>
+    </row>
+    <row r="19" spans="17:76" ht="25" x14ac:dyDescent="0.2">
       <c r="Q19">
         <v>14</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="22" t="s">
         <v>46</v>
       </c>
       <c r="S19" s="2">
@@ -2312,19 +2427,27 @@
       <c r="T19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
       <c r="W19" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
+        <v>95</v>
+      </c>
+      <c r="X19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
       <c r="AH19" s="14"/>
@@ -2351,27 +2474,27 @@
       <c r="BC19" s="15"/>
       <c r="BD19" s="15"/>
       <c r="BE19" s="15"/>
-      <c r="BF19" s="21"/>
-      <c r="BG19" s="21"/>
-      <c r="BH19" s="21"/>
-      <c r="BI19" s="21"/>
-      <c r="BJ19" s="21"/>
-      <c r="BK19" s="21"/>
-      <c r="BL19" s="21"/>
-      <c r="BM19" s="21"/>
-      <c r="BN19" s="21"/>
-      <c r="BO19" s="21"/>
-      <c r="BP19" s="21"/>
-      <c r="BQ19" s="21"/>
-      <c r="BR19" s="21"/>
-      <c r="BS19" s="21"/>
-      <c r="BT19" s="21"/>
-    </row>
-    <row r="20" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="BF19" s="15"/>
+      <c r="BG19" s="15"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="15"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="15"/>
+      <c r="BL19" s="15"/>
+      <c r="BM19" s="15"/>
+      <c r="BN19" s="15"/>
+      <c r="BO19" s="15"/>
+      <c r="BP19" s="15"/>
+      <c r="BQ19" s="15"/>
+      <c r="BR19" s="15"/>
+      <c r="BS19" s="15"/>
+      <c r="BT19" s="15"/>
+    </row>
+    <row r="20" spans="17:76" ht="25" x14ac:dyDescent="0.2">
       <c r="Q20">
         <v>15</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R20" s="22" t="s">
         <v>47</v>
       </c>
       <c r="S20" s="2">
@@ -2383,15 +2506,23 @@
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD20" s="13"/>
       <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
+      <c r="AF20" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="AG20" s="15"/>
       <c r="AH20" s="15"/>
       <c r="AI20" s="14"/>
@@ -2416,28 +2547,28 @@
       <c r="BB20" s="15"/>
       <c r="BC20" s="15"/>
       <c r="BD20" s="15"/>
-      <c r="BE20" s="21"/>
-      <c r="BF20" s="21"/>
-      <c r="BG20" s="21"/>
-      <c r="BH20" s="21"/>
-      <c r="BI20" s="21"/>
-      <c r="BJ20" s="21"/>
-      <c r="BK20" s="21"/>
-      <c r="BL20" s="21"/>
-      <c r="BM20" s="21"/>
-      <c r="BN20" s="21"/>
-      <c r="BO20" s="21"/>
-      <c r="BP20" s="21"/>
-      <c r="BQ20" s="21"/>
-      <c r="BR20" s="21"/>
-      <c r="BS20" s="21"/>
-      <c r="BT20" s="21"/>
-    </row>
-    <row r="21" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="BE20" s="15"/>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="15"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="15"/>
+      <c r="BL20" s="15"/>
+      <c r="BM20" s="15"/>
+      <c r="BN20" s="15"/>
+      <c r="BO20" s="15"/>
+      <c r="BP20" s="15"/>
+      <c r="BQ20" s="15"/>
+      <c r="BR20" s="15"/>
+      <c r="BS20" s="15"/>
+      <c r="BT20" s="15"/>
+    </row>
+    <row r="21" spans="17:76" ht="25" x14ac:dyDescent="0.2">
       <c r="Q21">
         <v>16</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R21" s="22" t="s">
         <v>48</v>
       </c>
       <c r="S21" s="2">
@@ -2449,16 +2580,24 @@
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="AE21" s="15"/>
       <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
+      <c r="AG21" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="AH21" s="15"/>
       <c r="AI21" s="15"/>
       <c r="AJ21" s="14"/>
@@ -2481,29 +2620,29 @@
       <c r="BA21" s="15"/>
       <c r="BB21" s="15"/>
       <c r="BC21" s="15"/>
-      <c r="BD21" s="21"/>
-      <c r="BE21" s="21"/>
-      <c r="BF21" s="21"/>
-      <c r="BG21" s="21"/>
-      <c r="BH21" s="21"/>
-      <c r="BI21" s="21"/>
-      <c r="BJ21" s="21"/>
-      <c r="BK21" s="21"/>
-      <c r="BL21" s="21"/>
-      <c r="BM21" s="21"/>
-      <c r="BN21" s="21"/>
-      <c r="BO21" s="21"/>
-      <c r="BP21" s="21"/>
-      <c r="BQ21" s="21"/>
-      <c r="BR21" s="21"/>
-      <c r="BS21" s="21"/>
-      <c r="BT21" s="21"/>
-    </row>
-    <row r="22" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="BD21" s="15"/>
+      <c r="BE21" s="15"/>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="15"/>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="15"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="15"/>
+      <c r="BL21" s="15"/>
+      <c r="BM21" s="15"/>
+      <c r="BN21" s="15"/>
+      <c r="BO21" s="15"/>
+      <c r="BP21" s="15"/>
+      <c r="BQ21" s="15"/>
+      <c r="BR21" s="15"/>
+      <c r="BS21" s="15"/>
+      <c r="BT21" s="15"/>
+    </row>
+    <row r="22" spans="17:76" x14ac:dyDescent="0.2">
       <c r="Q22">
         <v>17</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S22">
@@ -2546,30 +2685,30 @@
       <c r="AZ22" s="15"/>
       <c r="BA22" s="15"/>
       <c r="BB22" s="15"/>
-      <c r="BC22" s="21"/>
-      <c r="BD22" s="21"/>
-      <c r="BE22" s="21"/>
-      <c r="BF22" s="21"/>
-      <c r="BG22" s="21"/>
-      <c r="BH22" s="21"/>
-      <c r="BI22" s="21"/>
-      <c r="BJ22" s="21"/>
-      <c r="BK22" s="21"/>
-      <c r="BL22" s="21"/>
-      <c r="BM22" s="21"/>
-      <c r="BN22" s="21"/>
-      <c r="BO22" s="21"/>
-      <c r="BP22" s="21"/>
-      <c r="BQ22" s="21"/>
-      <c r="BR22" s="21"/>
-      <c r="BS22" s="21"/>
-      <c r="BT22" s="21"/>
-    </row>
-    <row r="23" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="BC22" s="15"/>
+      <c r="BD22" s="15"/>
+      <c r="BE22" s="15"/>
+      <c r="BF22" s="15"/>
+      <c r="BG22" s="15"/>
+      <c r="BH22" s="15"/>
+      <c r="BI22" s="15"/>
+      <c r="BJ22" s="15"/>
+      <c r="BK22" s="15"/>
+      <c r="BL22" s="15"/>
+      <c r="BM22" s="15"/>
+      <c r="BN22" s="15"/>
+      <c r="BO22" s="15"/>
+      <c r="BP22" s="15"/>
+      <c r="BQ22" s="15"/>
+      <c r="BR22" s="15"/>
+      <c r="BS22" s="15"/>
+      <c r="BT22" s="15"/>
+    </row>
+    <row r="23" spans="17:76" x14ac:dyDescent="0.2">
       <c r="Q23">
         <v>18</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="S23">
@@ -2611,37 +2750,37 @@
       <c r="AY23" s="15"/>
       <c r="AZ23" s="15"/>
       <c r="BA23" s="15"/>
-      <c r="BB23" s="21"/>
-      <c r="BC23" s="21"/>
-      <c r="BD23" s="21"/>
-      <c r="BE23" s="21"/>
-      <c r="BF23" s="21"/>
-      <c r="BG23" s="21"/>
-      <c r="BH23" s="21"/>
-      <c r="BI23" s="21"/>
-      <c r="BJ23" s="21"/>
-      <c r="BK23" s="21"/>
-      <c r="BL23" s="21"/>
-      <c r="BM23" s="21"/>
-      <c r="BN23" s="21"/>
-      <c r="BO23" s="21"/>
-      <c r="BP23" s="21"/>
-      <c r="BQ23" s="21"/>
-      <c r="BR23" s="21"/>
-      <c r="BS23" s="21"/>
-      <c r="BT23" s="21"/>
-    </row>
-    <row r="24" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="BB23" s="15"/>
+      <c r="BC23" s="15"/>
+      <c r="BD23" s="15"/>
+      <c r="BE23" s="15"/>
+      <c r="BF23" s="15"/>
+      <c r="BG23" s="15"/>
+      <c r="BH23" s="15"/>
+      <c r="BI23" s="15"/>
+      <c r="BJ23" s="15"/>
+      <c r="BK23" s="15"/>
+      <c r="BL23" s="15"/>
+      <c r="BM23" s="15"/>
+      <c r="BN23" s="15"/>
+      <c r="BO23" s="15"/>
+      <c r="BP23" s="15"/>
+      <c r="BQ23" s="15"/>
+      <c r="BR23" s="15"/>
+      <c r="BS23" s="15"/>
+      <c r="BT23" s="15"/>
+    </row>
+    <row r="24" spans="17:76" x14ac:dyDescent="0.2">
       <c r="Q24">
         <v>19</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="S24">
         <v>1</v>
       </c>
-      <c r="T24" s="22"/>
+      <c r="T24" s="12"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
@@ -2674,38 +2813,38 @@
       <c r="AX24" s="15"/>
       <c r="AY24" s="15"/>
       <c r="AZ24" s="15"/>
-      <c r="BA24" s="21"/>
-      <c r="BB24" s="21"/>
-      <c r="BC24" s="21"/>
-      <c r="BD24" s="21"/>
-      <c r="BE24" s="21"/>
-      <c r="BF24" s="21"/>
-      <c r="BG24" s="21"/>
-      <c r="BH24" s="21"/>
-      <c r="BI24" s="21"/>
-      <c r="BJ24" s="21"/>
-      <c r="BK24" s="21"/>
-      <c r="BL24" s="21"/>
-      <c r="BM24" s="21"/>
-      <c r="BN24" s="21"/>
-      <c r="BO24" s="21"/>
-      <c r="BP24" s="21"/>
-      <c r="BQ24" s="21"/>
-      <c r="BR24" s="21"/>
-      <c r="BS24" s="21"/>
-      <c r="BT24" s="21"/>
-    </row>
-    <row r="25" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="15"/>
+      <c r="BD24" s="15"/>
+      <c r="BE24" s="15"/>
+      <c r="BF24" s="15"/>
+      <c r="BG24" s="15"/>
+      <c r="BH24" s="15"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="15"/>
+      <c r="BK24" s="15"/>
+      <c r="BL24" s="15"/>
+      <c r="BM24" s="15"/>
+      <c r="BN24" s="15"/>
+      <c r="BO24" s="15"/>
+      <c r="BP24" s="15"/>
+      <c r="BQ24" s="15"/>
+      <c r="BR24" s="15"/>
+      <c r="BS24" s="15"/>
+      <c r="BT24" s="15"/>
+    </row>
+    <row r="25" spans="17:76" x14ac:dyDescent="0.2">
       <c r="Q25">
         <v>20</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="S25">
         <v>1</v>
       </c>
-      <c r="T25" s="22"/>
+      <c r="T25" s="12"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
@@ -2737,39 +2876,39 @@
       <c r="AW25" s="15"/>
       <c r="AX25" s="15"/>
       <c r="AY25" s="15"/>
-      <c r="AZ25" s="21"/>
-      <c r="BA25" s="21"/>
-      <c r="BB25" s="21"/>
-      <c r="BC25" s="21"/>
-      <c r="BD25" s="21"/>
-      <c r="BE25" s="21"/>
-      <c r="BF25" s="21"/>
-      <c r="BG25" s="21"/>
-      <c r="BH25" s="21"/>
-      <c r="BI25" s="21"/>
-      <c r="BJ25" s="21"/>
-      <c r="BK25" s="21"/>
-      <c r="BL25" s="21"/>
-      <c r="BM25" s="21"/>
-      <c r="BN25" s="21"/>
-      <c r="BO25" s="21"/>
-      <c r="BP25" s="21"/>
-      <c r="BQ25" s="21"/>
-      <c r="BR25" s="21"/>
-      <c r="BS25" s="21"/>
-      <c r="BT25" s="21"/>
-    </row>
-    <row r="26" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="AZ25" s="15"/>
+      <c r="BA25" s="15"/>
+      <c r="BB25" s="15"/>
+      <c r="BC25" s="15"/>
+      <c r="BD25" s="15"/>
+      <c r="BE25" s="15"/>
+      <c r="BF25" s="15"/>
+      <c r="BG25" s="15"/>
+      <c r="BH25" s="15"/>
+      <c r="BI25" s="15"/>
+      <c r="BJ25" s="15"/>
+      <c r="BK25" s="15"/>
+      <c r="BL25" s="15"/>
+      <c r="BM25" s="15"/>
+      <c r="BN25" s="15"/>
+      <c r="BO25" s="15"/>
+      <c r="BP25" s="15"/>
+      <c r="BQ25" s="15"/>
+      <c r="BR25" s="15"/>
+      <c r="BS25" s="15"/>
+      <c r="BT25" s="15"/>
+    </row>
+    <row r="26" spans="17:76" x14ac:dyDescent="0.2">
       <c r="Q26">
         <v>21</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="S26">
         <v>5</v>
       </c>
-      <c r="T26" s="22"/>
+      <c r="T26" s="12"/>
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
@@ -2800,40 +2939,40 @@
       <c r="AV26" s="15"/>
       <c r="AW26" s="15"/>
       <c r="AX26" s="15"/>
-      <c r="AY26" s="21"/>
-      <c r="AZ26" s="21"/>
-      <c r="BA26" s="21"/>
-      <c r="BB26" s="21"/>
-      <c r="BC26" s="21"/>
-      <c r="BD26" s="21"/>
-      <c r="BE26" s="21"/>
-      <c r="BF26" s="21"/>
-      <c r="BG26" s="21"/>
-      <c r="BH26" s="21"/>
-      <c r="BI26" s="21"/>
-      <c r="BJ26" s="21"/>
-      <c r="BK26" s="21"/>
-      <c r="BL26" s="21"/>
-      <c r="BM26" s="21"/>
-      <c r="BN26" s="21"/>
-      <c r="BO26" s="21"/>
-      <c r="BP26" s="21"/>
-      <c r="BQ26" s="21"/>
-      <c r="BR26" s="21"/>
-      <c r="BS26" s="21"/>
-      <c r="BT26" s="21"/>
-    </row>
-    <row r="27" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="AY26" s="15"/>
+      <c r="AZ26" s="15"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="15"/>
+      <c r="BC26" s="15"/>
+      <c r="BD26" s="15"/>
+      <c r="BE26" s="15"/>
+      <c r="BF26" s="15"/>
+      <c r="BG26" s="15"/>
+      <c r="BH26" s="15"/>
+      <c r="BI26" s="15"/>
+      <c r="BJ26" s="15"/>
+      <c r="BK26" s="15"/>
+      <c r="BL26" s="15"/>
+      <c r="BM26" s="15"/>
+      <c r="BN26" s="15"/>
+      <c r="BO26" s="15"/>
+      <c r="BP26" s="15"/>
+      <c r="BQ26" s="15"/>
+      <c r="BR26" s="15"/>
+      <c r="BS26" s="15"/>
+      <c r="BT26" s="15"/>
+    </row>
+    <row r="27" spans="17:76" x14ac:dyDescent="0.2">
       <c r="Q27">
         <v>22</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="S27">
         <v>10</v>
       </c>
-      <c r="T27" s="22"/>
+      <c r="T27" s="12"/>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
@@ -2863,41 +3002,41 @@
       <c r="AU27" s="15"/>
       <c r="AV27" s="15"/>
       <c r="AW27" s="15"/>
-      <c r="AX27" s="21"/>
-      <c r="AY27" s="21"/>
-      <c r="AZ27" s="21"/>
-      <c r="BA27" s="21"/>
-      <c r="BB27" s="21"/>
-      <c r="BC27" s="21"/>
-      <c r="BD27" s="21"/>
-      <c r="BE27" s="21"/>
-      <c r="BF27" s="21"/>
-      <c r="BG27" s="21"/>
-      <c r="BH27" s="21"/>
-      <c r="BI27" s="21"/>
-      <c r="BJ27" s="21"/>
-      <c r="BK27" s="21"/>
-      <c r="BL27" s="21"/>
-      <c r="BM27" s="21"/>
-      <c r="BN27" s="21"/>
-      <c r="BO27" s="21"/>
-      <c r="BP27" s="21"/>
-      <c r="BQ27" s="21"/>
-      <c r="BR27" s="21"/>
-      <c r="BS27" s="21"/>
-      <c r="BT27" s="21"/>
-    </row>
-    <row r="28" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="15"/>
+      <c r="AZ27" s="15"/>
+      <c r="BA27" s="15"/>
+      <c r="BB27" s="15"/>
+      <c r="BC27" s="15"/>
+      <c r="BD27" s="15"/>
+      <c r="BE27" s="15"/>
+      <c r="BF27" s="15"/>
+      <c r="BG27" s="15"/>
+      <c r="BH27" s="15"/>
+      <c r="BI27" s="15"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="15"/>
+      <c r="BL27" s="15"/>
+      <c r="BM27" s="15"/>
+      <c r="BN27" s="15"/>
+      <c r="BO27" s="15"/>
+      <c r="BP27" s="15"/>
+      <c r="BQ27" s="15"/>
+      <c r="BR27" s="15"/>
+      <c r="BS27" s="15"/>
+      <c r="BT27" s="15"/>
+    </row>
+    <row r="28" spans="17:76" x14ac:dyDescent="0.2">
       <c r="Q28">
         <v>23</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="S28">
         <v>10</v>
       </c>
-      <c r="T28" s="22"/>
+      <c r="T28" s="12"/>
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
@@ -2926,42 +3065,42 @@
       <c r="AT28" s="15"/>
       <c r="AU28" s="15"/>
       <c r="AV28" s="15"/>
-      <c r="AW28" s="21"/>
-      <c r="AX28" s="21"/>
-      <c r="AY28" s="21"/>
-      <c r="AZ28" s="21"/>
-      <c r="BA28" s="21"/>
-      <c r="BB28" s="21"/>
-      <c r="BC28" s="21"/>
-      <c r="BD28" s="21"/>
-      <c r="BE28" s="21"/>
-      <c r="BF28" s="21"/>
-      <c r="BG28" s="21"/>
-      <c r="BH28" s="21"/>
-      <c r="BI28" s="21"/>
-      <c r="BJ28" s="21"/>
-      <c r="BK28" s="21"/>
-      <c r="BL28" s="21"/>
-      <c r="BM28" s="21"/>
-      <c r="BN28" s="21"/>
-      <c r="BO28" s="21"/>
-      <c r="BP28" s="21"/>
-      <c r="BQ28" s="21"/>
-      <c r="BR28" s="21"/>
-      <c r="BS28" s="21"/>
-      <c r="BT28" s="21"/>
-    </row>
-    <row r="29" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="AW28" s="15"/>
+      <c r="AX28" s="15"/>
+      <c r="AY28" s="15"/>
+      <c r="AZ28" s="15"/>
+      <c r="BA28" s="15"/>
+      <c r="BB28" s="15"/>
+      <c r="BC28" s="15"/>
+      <c r="BD28" s="15"/>
+      <c r="BE28" s="15"/>
+      <c r="BF28" s="15"/>
+      <c r="BG28" s="15"/>
+      <c r="BH28" s="15"/>
+      <c r="BI28" s="15"/>
+      <c r="BJ28" s="15"/>
+      <c r="BK28" s="15"/>
+      <c r="BL28" s="15"/>
+      <c r="BM28" s="15"/>
+      <c r="BN28" s="15"/>
+      <c r="BO28" s="15"/>
+      <c r="BP28" s="15"/>
+      <c r="BQ28" s="15"/>
+      <c r="BR28" s="15"/>
+      <c r="BS28" s="15"/>
+      <c r="BT28" s="15"/>
+    </row>
+    <row r="29" spans="17:76" x14ac:dyDescent="0.2">
       <c r="Q29">
         <v>24</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="S29">
         <v>5</v>
       </c>
-      <c r="T29" s="22"/>
+      <c r="T29" s="12"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -2989,43 +3128,43 @@
       <c r="AS29" s="15"/>
       <c r="AT29" s="15"/>
       <c r="AU29" s="15"/>
-      <c r="AV29" s="21"/>
-      <c r="AW29" s="21"/>
-      <c r="AX29" s="21"/>
-      <c r="AY29" s="21"/>
-      <c r="AZ29" s="21"/>
-      <c r="BA29" s="21"/>
-      <c r="BB29" s="21"/>
-      <c r="BC29" s="21"/>
-      <c r="BD29" s="21"/>
-      <c r="BE29" s="21"/>
-      <c r="BF29" s="21"/>
-      <c r="BG29" s="21"/>
-      <c r="BH29" s="21"/>
-      <c r="BI29" s="21"/>
-      <c r="BJ29" s="21"/>
-      <c r="BK29" s="21"/>
-      <c r="BL29" s="21"/>
-      <c r="BM29" s="21"/>
-      <c r="BN29" s="21"/>
-      <c r="BO29" s="21"/>
-      <c r="BP29" s="21"/>
-      <c r="BQ29" s="21"/>
-      <c r="BR29" s="21"/>
-      <c r="BS29" s="21"/>
-      <c r="BT29" s="21"/>
-    </row>
-    <row r="30" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="15"/>
+      <c r="AZ29" s="15"/>
+      <c r="BA29" s="15"/>
+      <c r="BB29" s="15"/>
+      <c r="BC29" s="15"/>
+      <c r="BD29" s="15"/>
+      <c r="BE29" s="15"/>
+      <c r="BF29" s="15"/>
+      <c r="BG29" s="15"/>
+      <c r="BH29" s="15"/>
+      <c r="BI29" s="15"/>
+      <c r="BJ29" s="15"/>
+      <c r="BK29" s="15"/>
+      <c r="BL29" s="15"/>
+      <c r="BM29" s="15"/>
+      <c r="BN29" s="15"/>
+      <c r="BO29" s="15"/>
+      <c r="BP29" s="15"/>
+      <c r="BQ29" s="15"/>
+      <c r="BR29" s="15"/>
+      <c r="BS29" s="15"/>
+      <c r="BT29" s="15"/>
+    </row>
+    <row r="30" spans="17:76" x14ac:dyDescent="0.2">
       <c r="Q30">
         <v>25</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S30">
         <v>5</v>
       </c>
-      <c r="T30" s="22"/>
+      <c r="T30" s="12"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
@@ -3052,44 +3191,44 @@
       <c r="AR30" s="15"/>
       <c r="AS30" s="14"/>
       <c r="AT30" s="15"/>
-      <c r="AU30" s="21"/>
-      <c r="AV30" s="21"/>
-      <c r="AW30" s="21"/>
-      <c r="AX30" s="21"/>
-      <c r="AY30" s="21"/>
-      <c r="AZ30" s="21"/>
-      <c r="BA30" s="21"/>
-      <c r="BB30" s="21"/>
-      <c r="BC30" s="21"/>
-      <c r="BD30" s="21"/>
-      <c r="BE30" s="21"/>
-      <c r="BF30" s="21"/>
-      <c r="BG30" s="21"/>
-      <c r="BH30" s="21"/>
-      <c r="BI30" s="21"/>
-      <c r="BJ30" s="21"/>
-      <c r="BK30" s="21"/>
-      <c r="BL30" s="21"/>
-      <c r="BM30" s="21"/>
-      <c r="BN30" s="21"/>
-      <c r="BO30" s="21"/>
-      <c r="BP30" s="21"/>
-      <c r="BQ30" s="21"/>
-      <c r="BR30" s="21"/>
-      <c r="BS30" s="21"/>
-      <c r="BT30" s="21"/>
-    </row>
-    <row r="31" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="15"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="15"/>
+      <c r="BC30" s="15"/>
+      <c r="BD30" s="15"/>
+      <c r="BE30" s="15"/>
+      <c r="BF30" s="15"/>
+      <c r="BG30" s="15"/>
+      <c r="BH30" s="15"/>
+      <c r="BI30" s="15"/>
+      <c r="BJ30" s="15"/>
+      <c r="BK30" s="15"/>
+      <c r="BL30" s="15"/>
+      <c r="BM30" s="15"/>
+      <c r="BN30" s="15"/>
+      <c r="BO30" s="15"/>
+      <c r="BP30" s="15"/>
+      <c r="BQ30" s="15"/>
+      <c r="BR30" s="15"/>
+      <c r="BS30" s="15"/>
+      <c r="BT30" s="15"/>
+    </row>
+    <row r="31" spans="17:76" x14ac:dyDescent="0.2">
       <c r="Q31">
         <v>26</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S31">
         <v>10</v>
       </c>
-      <c r="T31" s="22"/>
+      <c r="T31" s="12"/>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
@@ -3115,45 +3254,45 @@
       <c r="AQ31" s="15"/>
       <c r="AR31" s="15"/>
       <c r="AS31" s="15"/>
-      <c r="AT31" s="21"/>
-      <c r="AU31" s="21"/>
-      <c r="AV31" s="21"/>
-      <c r="AW31" s="21"/>
-      <c r="AX31" s="21"/>
-      <c r="AY31" s="21"/>
-      <c r="AZ31" s="21"/>
-      <c r="BA31" s="21"/>
-      <c r="BB31" s="21"/>
-      <c r="BC31" s="21"/>
-      <c r="BD31" s="21"/>
-      <c r="BE31" s="21"/>
-      <c r="BF31" s="21"/>
-      <c r="BG31" s="21"/>
-      <c r="BH31" s="21"/>
-      <c r="BI31" s="21"/>
-      <c r="BJ31" s="21"/>
-      <c r="BK31" s="21"/>
-      <c r="BL31" s="21"/>
-      <c r="BM31" s="21"/>
-      <c r="BN31" s="21"/>
-      <c r="BO31" s="21"/>
-      <c r="BP31" s="21"/>
-      <c r="BQ31" s="21"/>
-      <c r="BR31" s="21"/>
-      <c r="BS31" s="21"/>
-      <c r="BT31" s="21"/>
-    </row>
-    <row r="32" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="AT31" s="14"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="15"/>
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="15"/>
+      <c r="AY31" s="15"/>
+      <c r="AZ31" s="15"/>
+      <c r="BA31" s="15"/>
+      <c r="BB31" s="15"/>
+      <c r="BC31" s="15"/>
+      <c r="BD31" s="15"/>
+      <c r="BE31" s="15"/>
+      <c r="BF31" s="15"/>
+      <c r="BG31" s="15"/>
+      <c r="BH31" s="15"/>
+      <c r="BI31" s="15"/>
+      <c r="BJ31" s="15"/>
+      <c r="BK31" s="15"/>
+      <c r="BL31" s="15"/>
+      <c r="BM31" s="15"/>
+      <c r="BN31" s="15"/>
+      <c r="BO31" s="15"/>
+      <c r="BP31" s="15"/>
+      <c r="BQ31" s="15"/>
+      <c r="BR31" s="15"/>
+      <c r="BS31" s="15"/>
+      <c r="BT31" s="15"/>
+    </row>
+    <row r="32" spans="17:76" x14ac:dyDescent="0.2">
       <c r="Q32">
         <v>27</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="S32">
         <v>10</v>
       </c>
-      <c r="T32" s="22"/>
+      <c r="T32" s="12"/>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
@@ -3178,46 +3317,46 @@
       <c r="AP32" s="15"/>
       <c r="AQ32" s="15"/>
       <c r="AR32" s="15"/>
-      <c r="AS32" s="21"/>
-      <c r="AT32" s="21"/>
-      <c r="AU32" s="21"/>
-      <c r="AV32" s="21"/>
-      <c r="AW32" s="21"/>
-      <c r="AX32" s="21"/>
-      <c r="AY32" s="21"/>
-      <c r="AZ32" s="21"/>
-      <c r="BA32" s="21"/>
-      <c r="BB32" s="21"/>
-      <c r="BC32" s="21"/>
-      <c r="BD32" s="21"/>
-      <c r="BE32" s="21"/>
-      <c r="BF32" s="21"/>
-      <c r="BG32" s="21"/>
-      <c r="BH32" s="21"/>
-      <c r="BI32" s="21"/>
-      <c r="BJ32" s="21"/>
-      <c r="BK32" s="21"/>
-      <c r="BL32" s="21"/>
-      <c r="BM32" s="21"/>
-      <c r="BN32" s="21"/>
-      <c r="BO32" s="21"/>
-      <c r="BP32" s="21"/>
-      <c r="BQ32" s="21"/>
-      <c r="BR32" s="21"/>
-      <c r="BS32" s="21"/>
-      <c r="BT32" s="21"/>
+      <c r="AS32" s="15"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="14"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BG32" s="15"/>
+      <c r="BH32" s="15"/>
+      <c r="BI32" s="15"/>
+      <c r="BJ32" s="15"/>
+      <c r="BK32" s="15"/>
+      <c r="BL32" s="15"/>
+      <c r="BM32" s="15"/>
+      <c r="BN32" s="15"/>
+      <c r="BO32" s="15"/>
+      <c r="BP32" s="15"/>
+      <c r="BQ32" s="15"/>
+      <c r="BR32" s="15"/>
+      <c r="BS32" s="15"/>
+      <c r="BT32" s="15"/>
     </row>
     <row r="33" spans="17:72" x14ac:dyDescent="0.2">
       <c r="Q33">
         <v>28</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R33" s="1" t="s">
         <v>24</v>
       </c>
       <c r="S33">
         <v>5</v>
       </c>
-      <c r="T33" s="22"/>
+      <c r="T33" s="12"/>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
@@ -3241,47 +3380,47 @@
       <c r="AO33" s="15"/>
       <c r="AP33" s="15"/>
       <c r="AQ33" s="15"/>
-      <c r="AR33" s="21"/>
-      <c r="AS33" s="21"/>
-      <c r="AT33" s="21"/>
-      <c r="AU33" s="21"/>
-      <c r="AV33" s="21"/>
-      <c r="AW33" s="21"/>
-      <c r="AX33" s="21"/>
-      <c r="AY33" s="21"/>
-      <c r="AZ33" s="21"/>
-      <c r="BA33" s="21"/>
-      <c r="BB33" s="21"/>
-      <c r="BC33" s="21"/>
-      <c r="BD33" s="21"/>
-      <c r="BE33" s="21"/>
-      <c r="BF33" s="21"/>
-      <c r="BG33" s="21"/>
-      <c r="BH33" s="21"/>
-      <c r="BI33" s="21"/>
-      <c r="BJ33" s="21"/>
-      <c r="BK33" s="21"/>
-      <c r="BL33" s="21"/>
-      <c r="BM33" s="21"/>
-      <c r="BN33" s="21"/>
-      <c r="BO33" s="21"/>
-      <c r="BP33" s="21"/>
-      <c r="BQ33" s="21"/>
-      <c r="BR33" s="21"/>
-      <c r="BS33" s="21"/>
-      <c r="BT33" s="21"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="14"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="15"/>
+      <c r="BA33" s="15"/>
+      <c r="BB33" s="15"/>
+      <c r="BC33" s="15"/>
+      <c r="BD33" s="15"/>
+      <c r="BE33" s="15"/>
+      <c r="BF33" s="15"/>
+      <c r="BG33" s="15"/>
+      <c r="BH33" s="15"/>
+      <c r="BI33" s="15"/>
+      <c r="BJ33" s="15"/>
+      <c r="BK33" s="15"/>
+      <c r="BL33" s="15"/>
+      <c r="BM33" s="15"/>
+      <c r="BN33" s="15"/>
+      <c r="BO33" s="15"/>
+      <c r="BP33" s="15"/>
+      <c r="BQ33" s="15"/>
+      <c r="BR33" s="15"/>
+      <c r="BS33" s="15"/>
+      <c r="BT33" s="15"/>
     </row>
     <row r="34" spans="17:72" x14ac:dyDescent="0.2">
       <c r="Q34">
         <v>29</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R34" s="1" t="s">
         <v>25</v>
       </c>
       <c r="S34">
         <v>5</v>
       </c>
-      <c r="T34" s="22"/>
+      <c r="T34" s="12"/>
       <c r="U34" s="15"/>
       <c r="V34" s="15"/>
       <c r="W34" s="15"/>
@@ -3304,48 +3443,48 @@
       <c r="AN34" s="15"/>
       <c r="AO34" s="15"/>
       <c r="AP34" s="15"/>
-      <c r="AQ34" s="21"/>
-      <c r="AR34" s="21"/>
-      <c r="AS34" s="21"/>
-      <c r="AT34" s="21"/>
-      <c r="AU34" s="21"/>
-      <c r="AV34" s="21"/>
-      <c r="AW34" s="21"/>
-      <c r="AX34" s="21"/>
-      <c r="AY34" s="21"/>
-      <c r="AZ34" s="21"/>
-      <c r="BA34" s="21"/>
-      <c r="BB34" s="21"/>
-      <c r="BC34" s="21"/>
-      <c r="BD34" s="21"/>
-      <c r="BE34" s="21"/>
-      <c r="BF34" s="21"/>
-      <c r="BG34" s="21"/>
-      <c r="BH34" s="21"/>
-      <c r="BI34" s="21"/>
-      <c r="BJ34" s="21"/>
-      <c r="BK34" s="21"/>
-      <c r="BL34" s="21"/>
-      <c r="BM34" s="21"/>
-      <c r="BN34" s="21"/>
-      <c r="BO34" s="21"/>
-      <c r="BP34" s="21"/>
-      <c r="BQ34" s="21"/>
-      <c r="BR34" s="21"/>
-      <c r="BS34" s="21"/>
-      <c r="BT34" s="21"/>
+      <c r="AQ34" s="15"/>
+      <c r="AR34" s="15"/>
+      <c r="AS34" s="15"/>
+      <c r="AT34" s="15"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="14"/>
+      <c r="AX34" s="15"/>
+      <c r="AY34" s="15"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="15"/>
+      <c r="BB34" s="15"/>
+      <c r="BC34" s="15"/>
+      <c r="BD34" s="15"/>
+      <c r="BE34" s="15"/>
+      <c r="BF34" s="15"/>
+      <c r="BG34" s="15"/>
+      <c r="BH34" s="15"/>
+      <c r="BI34" s="15"/>
+      <c r="BJ34" s="15"/>
+      <c r="BK34" s="15"/>
+      <c r="BL34" s="15"/>
+      <c r="BM34" s="15"/>
+      <c r="BN34" s="15"/>
+      <c r="BO34" s="15"/>
+      <c r="BP34" s="15"/>
+      <c r="BQ34" s="15"/>
+      <c r="BR34" s="15"/>
+      <c r="BS34" s="15"/>
+      <c r="BT34" s="15"/>
     </row>
     <row r="35" spans="17:72" x14ac:dyDescent="0.2">
       <c r="Q35">
         <v>30</v>
       </c>
-      <c r="R35" t="s">
+      <c r="R35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="S35">
         <v>10</v>
       </c>
-      <c r="T35" s="22"/>
+      <c r="T35" s="12"/>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
@@ -3367,49 +3506,49 @@
       <c r="AM35" s="15"/>
       <c r="AN35" s="15"/>
       <c r="AO35" s="15"/>
-      <c r="AP35" s="21"/>
-      <c r="AQ35" s="21"/>
-      <c r="AR35" s="21"/>
-      <c r="AS35" s="21"/>
-      <c r="AT35" s="21"/>
-      <c r="AU35" s="21"/>
-      <c r="AV35" s="21"/>
-      <c r="AW35" s="21"/>
-      <c r="AX35" s="21"/>
-      <c r="AY35" s="21"/>
-      <c r="AZ35" s="21"/>
-      <c r="BA35" s="21"/>
-      <c r="BB35" s="21"/>
-      <c r="BC35" s="21"/>
-      <c r="BD35" s="21"/>
-      <c r="BE35" s="21"/>
-      <c r="BF35" s="21"/>
-      <c r="BG35" s="21"/>
-      <c r="BH35" s="21"/>
-      <c r="BI35" s="21"/>
-      <c r="BJ35" s="21"/>
-      <c r="BK35" s="21"/>
-      <c r="BL35" s="21"/>
-      <c r="BM35" s="21"/>
-      <c r="BN35" s="21"/>
-      <c r="BO35" s="21"/>
-      <c r="BP35" s="21"/>
-      <c r="BQ35" s="21"/>
-      <c r="BR35" s="21"/>
-      <c r="BS35" s="21"/>
-      <c r="BT35" s="21"/>
+      <c r="AP35" s="15"/>
+      <c r="AQ35" s="15"/>
+      <c r="AR35" s="15"/>
+      <c r="AS35" s="15"/>
+      <c r="AT35" s="15"/>
+      <c r="AU35" s="15"/>
+      <c r="AV35" s="15"/>
+      <c r="AW35" s="15"/>
+      <c r="AX35" s="14"/>
+      <c r="AY35" s="15"/>
+      <c r="AZ35" s="15"/>
+      <c r="BA35" s="15"/>
+      <c r="BB35" s="15"/>
+      <c r="BC35" s="15"/>
+      <c r="BD35" s="15"/>
+      <c r="BE35" s="15"/>
+      <c r="BF35" s="15"/>
+      <c r="BG35" s="15"/>
+      <c r="BH35" s="15"/>
+      <c r="BI35" s="15"/>
+      <c r="BJ35" s="15"/>
+      <c r="BK35" s="15"/>
+      <c r="BL35" s="15"/>
+      <c r="BM35" s="15"/>
+      <c r="BN35" s="15"/>
+      <c r="BO35" s="15"/>
+      <c r="BP35" s="15"/>
+      <c r="BQ35" s="15"/>
+      <c r="BR35" s="15"/>
+      <c r="BS35" s="15"/>
+      <c r="BT35" s="15"/>
     </row>
     <row r="36" spans="17:72" x14ac:dyDescent="0.2">
       <c r="Q36">
         <v>31</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R36" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S36">
         <v>10</v>
       </c>
-      <c r="T36" s="22"/>
+      <c r="T36" s="12"/>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
       <c r="W36" s="15"/>
@@ -3430,50 +3569,50 @@
       <c r="AL36" s="15"/>
       <c r="AM36" s="15"/>
       <c r="AN36" s="15"/>
-      <c r="AO36" s="21"/>
-      <c r="AP36" s="21"/>
-      <c r="AQ36" s="21"/>
-      <c r="AR36" s="21"/>
-      <c r="AS36" s="21"/>
-      <c r="AT36" s="21"/>
-      <c r="AU36" s="21"/>
-      <c r="AV36" s="21"/>
-      <c r="AW36" s="21"/>
-      <c r="AX36" s="21"/>
-      <c r="AY36" s="21"/>
-      <c r="AZ36" s="21"/>
-      <c r="BA36" s="21"/>
-      <c r="BB36" s="21"/>
-      <c r="BC36" s="21"/>
-      <c r="BD36" s="21"/>
-      <c r="BE36" s="21"/>
-      <c r="BF36" s="21"/>
-      <c r="BG36" s="21"/>
-      <c r="BH36" s="21"/>
-      <c r="BI36" s="21"/>
-      <c r="BJ36" s="21"/>
-      <c r="BK36" s="21"/>
-      <c r="BL36" s="21"/>
-      <c r="BM36" s="21"/>
-      <c r="BN36" s="21"/>
-      <c r="BO36" s="21"/>
-      <c r="BP36" s="21"/>
-      <c r="BQ36" s="21"/>
-      <c r="BR36" s="21"/>
-      <c r="BS36" s="21"/>
-      <c r="BT36" s="21"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="15"/>
+      <c r="AR36" s="15"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+      <c r="AY36" s="14"/>
+      <c r="AZ36" s="15"/>
+      <c r="BA36" s="15"/>
+      <c r="BB36" s="15"/>
+      <c r="BC36" s="15"/>
+      <c r="BD36" s="15"/>
+      <c r="BE36" s="15"/>
+      <c r="BF36" s="15"/>
+      <c r="BG36" s="15"/>
+      <c r="BH36" s="15"/>
+      <c r="BI36" s="15"/>
+      <c r="BJ36" s="15"/>
+      <c r="BK36" s="15"/>
+      <c r="BL36" s="15"/>
+      <c r="BM36" s="15"/>
+      <c r="BN36" s="15"/>
+      <c r="BO36" s="15"/>
+      <c r="BP36" s="15"/>
+      <c r="BQ36" s="15"/>
+      <c r="BR36" s="15"/>
+      <c r="BS36" s="15"/>
+      <c r="BT36" s="15"/>
     </row>
     <row r="37" spans="17:72" x14ac:dyDescent="0.2">
       <c r="Q37">
         <v>32</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="S37">
         <v>5</v>
       </c>
-      <c r="T37" s="22"/>
+      <c r="T37" s="12"/>
       <c r="U37" s="15"/>
       <c r="V37" s="15"/>
       <c r="W37" s="15"/>
@@ -3493,51 +3632,51 @@
       <c r="AK37" s="15"/>
       <c r="AL37" s="15"/>
       <c r="AM37" s="15"/>
-      <c r="AN37" s="21"/>
-      <c r="AO37" s="21"/>
-      <c r="AP37" s="21"/>
-      <c r="AQ37" s="21"/>
-      <c r="AR37" s="21"/>
-      <c r="AS37" s="21"/>
-      <c r="AT37" s="21"/>
-      <c r="AU37" s="21"/>
-      <c r="AV37" s="21"/>
-      <c r="AW37" s="21"/>
-      <c r="AX37" s="21"/>
-      <c r="AY37" s="21"/>
-      <c r="AZ37" s="21"/>
-      <c r="BA37" s="21"/>
-      <c r="BB37" s="21"/>
-      <c r="BC37" s="21"/>
-      <c r="BD37" s="21"/>
-      <c r="BE37" s="21"/>
-      <c r="BF37" s="21"/>
-      <c r="BG37" s="21"/>
-      <c r="BH37" s="21"/>
-      <c r="BI37" s="21"/>
-      <c r="BJ37" s="21"/>
-      <c r="BK37" s="21"/>
-      <c r="BL37" s="21"/>
-      <c r="BM37" s="21"/>
-      <c r="BN37" s="21"/>
-      <c r="BO37" s="21"/>
-      <c r="BP37" s="21"/>
-      <c r="BQ37" s="21"/>
-      <c r="BR37" s="21"/>
-      <c r="BS37" s="21"/>
-      <c r="BT37" s="21"/>
+      <c r="AN37" s="15"/>
+      <c r="AO37" s="15"/>
+      <c r="AP37" s="15"/>
+      <c r="AQ37" s="15"/>
+      <c r="AR37" s="15"/>
+      <c r="AS37" s="15"/>
+      <c r="AT37" s="15"/>
+      <c r="AU37" s="15"/>
+      <c r="AV37" s="15"/>
+      <c r="AW37" s="15"/>
+      <c r="AX37" s="15"/>
+      <c r="AY37" s="15"/>
+      <c r="AZ37" s="14"/>
+      <c r="BA37" s="15"/>
+      <c r="BB37" s="15"/>
+      <c r="BC37" s="15"/>
+      <c r="BD37" s="15"/>
+      <c r="BE37" s="15"/>
+      <c r="BF37" s="15"/>
+      <c r="BG37" s="15"/>
+      <c r="BH37" s="15"/>
+      <c r="BI37" s="15"/>
+      <c r="BJ37" s="15"/>
+      <c r="BK37" s="15"/>
+      <c r="BL37" s="15"/>
+      <c r="BM37" s="15"/>
+      <c r="BN37" s="15"/>
+      <c r="BO37" s="15"/>
+      <c r="BP37" s="15"/>
+      <c r="BQ37" s="15"/>
+      <c r="BR37" s="15"/>
+      <c r="BS37" s="15"/>
+      <c r="BT37" s="15"/>
     </row>
     <row r="38" spans="17:72" x14ac:dyDescent="0.2">
       <c r="Q38">
         <v>33</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="S38">
         <v>5</v>
       </c>
-      <c r="T38" s="22"/>
+      <c r="T38" s="12"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="15"/>
@@ -3556,52 +3695,52 @@
       <c r="AJ38" s="15"/>
       <c r="AK38" s="15"/>
       <c r="AL38" s="15"/>
-      <c r="AM38" s="21"/>
-      <c r="AN38" s="21"/>
-      <c r="AO38" s="21"/>
-      <c r="AP38" s="21"/>
-      <c r="AQ38" s="21"/>
-      <c r="AR38" s="21"/>
-      <c r="AS38" s="21"/>
-      <c r="AT38" s="21"/>
-      <c r="AU38" s="21"/>
-      <c r="AV38" s="21"/>
-      <c r="AW38" s="21"/>
-      <c r="AX38" s="21"/>
-      <c r="AY38" s="21"/>
-      <c r="AZ38" s="21"/>
-      <c r="BA38" s="21"/>
-      <c r="BB38" s="21"/>
-      <c r="BC38" s="21"/>
-      <c r="BD38" s="21"/>
-      <c r="BE38" s="21"/>
-      <c r="BF38" s="21"/>
-      <c r="BG38" s="21"/>
-      <c r="BH38" s="21"/>
-      <c r="BI38" s="21"/>
-      <c r="BJ38" s="21"/>
-      <c r="BK38" s="21"/>
-      <c r="BL38" s="21"/>
-      <c r="BM38" s="21"/>
-      <c r="BN38" s="21"/>
-      <c r="BO38" s="21"/>
-      <c r="BP38" s="21"/>
-      <c r="BQ38" s="21"/>
-      <c r="BR38" s="21"/>
-      <c r="BS38" s="21"/>
-      <c r="BT38" s="21"/>
+      <c r="AM38" s="15"/>
+      <c r="AN38" s="15"/>
+      <c r="AO38" s="15"/>
+      <c r="AP38" s="15"/>
+      <c r="AQ38" s="15"/>
+      <c r="AR38" s="15"/>
+      <c r="AS38" s="15"/>
+      <c r="AT38" s="15"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="15"/>
+      <c r="AW38" s="15"/>
+      <c r="AX38" s="15"/>
+      <c r="AY38" s="15"/>
+      <c r="AZ38" s="15"/>
+      <c r="BA38" s="14"/>
+      <c r="BB38" s="15"/>
+      <c r="BC38" s="15"/>
+      <c r="BD38" s="15"/>
+      <c r="BE38" s="15"/>
+      <c r="BF38" s="15"/>
+      <c r="BG38" s="15"/>
+      <c r="BH38" s="15"/>
+      <c r="BI38" s="15"/>
+      <c r="BJ38" s="15"/>
+      <c r="BK38" s="15"/>
+      <c r="BL38" s="15"/>
+      <c r="BM38" s="15"/>
+      <c r="BN38" s="15"/>
+      <c r="BO38" s="15"/>
+      <c r="BP38" s="15"/>
+      <c r="BQ38" s="15"/>
+      <c r="BR38" s="15"/>
+      <c r="BS38" s="15"/>
+      <c r="BT38" s="15"/>
     </row>
     <row r="39" spans="17:72" x14ac:dyDescent="0.2">
       <c r="Q39">
         <v>34</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R39" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S39">
         <v>5</v>
       </c>
-      <c r="T39" s="22"/>
+      <c r="T39" s="12"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="15"/>
@@ -3619,53 +3758,53 @@
       <c r="AI39" s="15"/>
       <c r="AJ39" s="15"/>
       <c r="AK39" s="15"/>
-      <c r="AL39" s="21"/>
-      <c r="AM39" s="21"/>
-      <c r="AN39" s="21"/>
-      <c r="AO39" s="21"/>
-      <c r="AP39" s="21"/>
-      <c r="AQ39" s="21"/>
-      <c r="AR39" s="21"/>
-      <c r="AS39" s="21"/>
-      <c r="AT39" s="21"/>
-      <c r="AU39" s="21"/>
-      <c r="AV39" s="21"/>
-      <c r="AW39" s="21"/>
-      <c r="AX39" s="21"/>
-      <c r="AY39" s="21"/>
-      <c r="AZ39" s="21"/>
-      <c r="BA39" s="21"/>
-      <c r="BB39" s="21"/>
-      <c r="BC39" s="21"/>
-      <c r="BD39" s="21"/>
-      <c r="BE39" s="21"/>
-      <c r="BF39" s="21"/>
-      <c r="BG39" s="21"/>
-      <c r="BH39" s="21"/>
-      <c r="BI39" s="21"/>
-      <c r="BJ39" s="21"/>
-      <c r="BK39" s="21"/>
-      <c r="BL39" s="21"/>
-      <c r="BM39" s="21"/>
-      <c r="BN39" s="21"/>
-      <c r="BO39" s="21"/>
-      <c r="BP39" s="21"/>
-      <c r="BQ39" s="21"/>
-      <c r="BR39" s="21"/>
-      <c r="BS39" s="21"/>
-      <c r="BT39" s="21"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="15"/>
+      <c r="AN39" s="15"/>
+      <c r="AO39" s="15"/>
+      <c r="AP39" s="15"/>
+      <c r="AQ39" s="15"/>
+      <c r="AR39" s="15"/>
+      <c r="AS39" s="15"/>
+      <c r="AT39" s="15"/>
+      <c r="AU39" s="15"/>
+      <c r="AV39" s="15"/>
+      <c r="AW39" s="15"/>
+      <c r="AX39" s="15"/>
+      <c r="AY39" s="15"/>
+      <c r="AZ39" s="15"/>
+      <c r="BA39" s="15"/>
+      <c r="BB39" s="14"/>
+      <c r="BC39" s="15"/>
+      <c r="BD39" s="15"/>
+      <c r="BE39" s="15"/>
+      <c r="BF39" s="15"/>
+      <c r="BG39" s="15"/>
+      <c r="BH39" s="15"/>
+      <c r="BI39" s="15"/>
+      <c r="BJ39" s="15"/>
+      <c r="BK39" s="15"/>
+      <c r="BL39" s="15"/>
+      <c r="BM39" s="15"/>
+      <c r="BN39" s="15"/>
+      <c r="BO39" s="15"/>
+      <c r="BP39" s="15"/>
+      <c r="BQ39" s="15"/>
+      <c r="BR39" s="15"/>
+      <c r="BS39" s="15"/>
+      <c r="BT39" s="15"/>
     </row>
     <row r="40" spans="17:72" x14ac:dyDescent="0.2">
       <c r="Q40">
         <v>35</v>
       </c>
-      <c r="R40" t="s">
+      <c r="R40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="S40">
         <v>4</v>
       </c>
-      <c r="T40" s="22"/>
+      <c r="T40" s="12"/>
       <c r="U40" s="15"/>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
@@ -3682,54 +3821,54 @@
       <c r="AH40" s="15"/>
       <c r="AI40" s="15"/>
       <c r="AJ40" s="15"/>
-      <c r="AK40" s="21"/>
-      <c r="AL40" s="21"/>
-      <c r="AM40" s="21"/>
-      <c r="AN40" s="21"/>
-      <c r="AO40" s="21"/>
-      <c r="AP40" s="21"/>
-      <c r="AQ40" s="21"/>
-      <c r="AR40" s="21"/>
-      <c r="AS40" s="21"/>
-      <c r="AT40" s="21"/>
-      <c r="AU40" s="21"/>
-      <c r="AV40" s="21"/>
-      <c r="AW40" s="21"/>
-      <c r="AX40" s="21"/>
-      <c r="AY40" s="21"/>
-      <c r="AZ40" s="21"/>
-      <c r="BA40" s="21"/>
-      <c r="BB40" s="21"/>
-      <c r="BC40" s="21"/>
-      <c r="BD40" s="21"/>
-      <c r="BE40" s="21"/>
-      <c r="BF40" s="21"/>
-      <c r="BG40" s="21"/>
-      <c r="BH40" s="21"/>
-      <c r="BI40" s="21"/>
-      <c r="BJ40" s="21"/>
-      <c r="BK40" s="21"/>
-      <c r="BL40" s="21"/>
-      <c r="BM40" s="21"/>
-      <c r="BN40" s="21"/>
-      <c r="BO40" s="21"/>
-      <c r="BP40" s="21"/>
-      <c r="BQ40" s="21"/>
-      <c r="BR40" s="21"/>
-      <c r="BS40" s="21"/>
-      <c r="BT40" s="21"/>
+      <c r="AK40" s="15"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="15"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="15"/>
+      <c r="AQ40" s="15"/>
+      <c r="AR40" s="15"/>
+      <c r="AS40" s="15"/>
+      <c r="AT40" s="15"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="15"/>
+      <c r="AW40" s="15"/>
+      <c r="AX40" s="15"/>
+      <c r="AY40" s="15"/>
+      <c r="AZ40" s="15"/>
+      <c r="BA40" s="15"/>
+      <c r="BB40" s="15"/>
+      <c r="BC40" s="14"/>
+      <c r="BD40" s="15"/>
+      <c r="BE40" s="15"/>
+      <c r="BF40" s="15"/>
+      <c r="BG40" s="15"/>
+      <c r="BH40" s="15"/>
+      <c r="BI40" s="15"/>
+      <c r="BJ40" s="15"/>
+      <c r="BK40" s="15"/>
+      <c r="BL40" s="15"/>
+      <c r="BM40" s="15"/>
+      <c r="BN40" s="15"/>
+      <c r="BO40" s="15"/>
+      <c r="BP40" s="15"/>
+      <c r="BQ40" s="15"/>
+      <c r="BR40" s="15"/>
+      <c r="BS40" s="15"/>
+      <c r="BT40" s="15"/>
     </row>
     <row r="41" spans="17:72" x14ac:dyDescent="0.2">
       <c r="Q41">
         <v>36</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="S41">
         <v>6</v>
       </c>
-      <c r="T41" s="22"/>
+      <c r="T41" s="12"/>
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
       <c r="W41" s="15"/>
@@ -3745,55 +3884,55 @@
       <c r="AG41" s="15"/>
       <c r="AH41" s="15"/>
       <c r="AI41" s="15"/>
-      <c r="AJ41" s="21"/>
-      <c r="AK41" s="21"/>
-      <c r="AL41" s="21"/>
-      <c r="AM41" s="21"/>
-      <c r="AN41" s="21"/>
-      <c r="AO41" s="21"/>
-      <c r="AP41" s="21"/>
-      <c r="AQ41" s="21"/>
-      <c r="AR41" s="21"/>
-      <c r="AS41" s="21"/>
-      <c r="AT41" s="21"/>
-      <c r="AU41" s="21"/>
-      <c r="AV41" s="21"/>
-      <c r="AW41" s="21"/>
-      <c r="AX41" s="21"/>
-      <c r="AY41" s="21"/>
-      <c r="AZ41" s="21"/>
-      <c r="BA41" s="21"/>
-      <c r="BB41" s="21"/>
-      <c r="BC41" s="21"/>
-      <c r="BD41" s="21"/>
-      <c r="BE41" s="21"/>
-      <c r="BF41" s="21"/>
-      <c r="BG41" s="21"/>
-      <c r="BH41" s="21"/>
-      <c r="BI41" s="21"/>
-      <c r="BJ41" s="21"/>
-      <c r="BK41" s="21"/>
-      <c r="BL41" s="21"/>
-      <c r="BM41" s="21"/>
-      <c r="BN41" s="21"/>
-      <c r="BO41" s="21"/>
-      <c r="BP41" s="21"/>
-      <c r="BQ41" s="21"/>
-      <c r="BR41" s="21"/>
-      <c r="BS41" s="21"/>
-      <c r="BT41" s="21"/>
+      <c r="AJ41" s="15"/>
+      <c r="AK41" s="15"/>
+      <c r="AL41" s="15"/>
+      <c r="AM41" s="15"/>
+      <c r="AN41" s="15"/>
+      <c r="AO41" s="15"/>
+      <c r="AP41" s="15"/>
+      <c r="AQ41" s="15"/>
+      <c r="AR41" s="15"/>
+      <c r="AS41" s="15"/>
+      <c r="AT41" s="15"/>
+      <c r="AU41" s="15"/>
+      <c r="AV41" s="15"/>
+      <c r="AW41" s="15"/>
+      <c r="AX41" s="15"/>
+      <c r="AY41" s="15"/>
+      <c r="AZ41" s="15"/>
+      <c r="BA41" s="15"/>
+      <c r="BB41" s="15"/>
+      <c r="BC41" s="15"/>
+      <c r="BD41" s="14"/>
+      <c r="BE41" s="15"/>
+      <c r="BF41" s="15"/>
+      <c r="BG41" s="15"/>
+      <c r="BH41" s="15"/>
+      <c r="BI41" s="15"/>
+      <c r="BJ41" s="15"/>
+      <c r="BK41" s="15"/>
+      <c r="BL41" s="15"/>
+      <c r="BM41" s="15"/>
+      <c r="BN41" s="15"/>
+      <c r="BO41" s="15"/>
+      <c r="BP41" s="15"/>
+      <c r="BQ41" s="15"/>
+      <c r="BR41" s="15"/>
+      <c r="BS41" s="15"/>
+      <c r="BT41" s="15"/>
     </row>
     <row r="42" spans="17:72" x14ac:dyDescent="0.2">
       <c r="Q42">
         <v>37</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="R42" s="22" t="s">
         <v>32</v>
       </c>
       <c r="S42">
         <v>4</v>
       </c>
-      <c r="T42" s="22"/>
+      <c r="T42" s="12"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="15"/>
@@ -3808,56 +3947,56 @@
       <c r="AF42" s="15"/>
       <c r="AG42" s="15"/>
       <c r="AH42" s="15"/>
-      <c r="AI42" s="21"/>
-      <c r="AJ42" s="21"/>
-      <c r="AK42" s="21"/>
-      <c r="AL42" s="21"/>
-      <c r="AM42" s="21"/>
-      <c r="AN42" s="21"/>
-      <c r="AO42" s="21"/>
-      <c r="AP42" s="21"/>
-      <c r="AQ42" s="21"/>
-      <c r="AR42" s="21"/>
-      <c r="AS42" s="21"/>
-      <c r="AT42" s="21"/>
-      <c r="AU42" s="21"/>
-      <c r="AV42" s="21"/>
-      <c r="AW42" s="21"/>
-      <c r="AX42" s="21"/>
-      <c r="AY42" s="21"/>
-      <c r="AZ42" s="21"/>
-      <c r="BA42" s="21"/>
-      <c r="BB42" s="21"/>
-      <c r="BC42" s="21"/>
-      <c r="BD42" s="21"/>
-      <c r="BE42" s="21"/>
-      <c r="BF42" s="21"/>
-      <c r="BG42" s="21"/>
-      <c r="BH42" s="21"/>
-      <c r="BI42" s="21"/>
-      <c r="BJ42" s="21"/>
-      <c r="BK42" s="21"/>
-      <c r="BL42" s="21"/>
-      <c r="BM42" s="21"/>
-      <c r="BN42" s="21"/>
-      <c r="BO42" s="21"/>
-      <c r="BP42" s="21"/>
-      <c r="BQ42" s="21"/>
-      <c r="BR42" s="21"/>
-      <c r="BS42" s="21"/>
-      <c r="BT42" s="21"/>
+      <c r="AI42" s="15"/>
+      <c r="AJ42" s="15"/>
+      <c r="AK42" s="15"/>
+      <c r="AL42" s="15"/>
+      <c r="AM42" s="15"/>
+      <c r="AN42" s="15"/>
+      <c r="AO42" s="15"/>
+      <c r="AP42" s="15"/>
+      <c r="AQ42" s="15"/>
+      <c r="AR42" s="15"/>
+      <c r="AS42" s="15"/>
+      <c r="AT42" s="15"/>
+      <c r="AU42" s="15"/>
+      <c r="AV42" s="15"/>
+      <c r="AW42" s="15"/>
+      <c r="AX42" s="15"/>
+      <c r="AY42" s="15"/>
+      <c r="AZ42" s="15"/>
+      <c r="BA42" s="15"/>
+      <c r="BB42" s="15"/>
+      <c r="BC42" s="15"/>
+      <c r="BD42" s="15"/>
+      <c r="BE42" s="14"/>
+      <c r="BF42" s="15"/>
+      <c r="BG42" s="15"/>
+      <c r="BH42" s="15"/>
+      <c r="BI42" s="15"/>
+      <c r="BJ42" s="15"/>
+      <c r="BK42" s="15"/>
+      <c r="BL42" s="15"/>
+      <c r="BM42" s="15"/>
+      <c r="BN42" s="15"/>
+      <c r="BO42" s="15"/>
+      <c r="BP42" s="15"/>
+      <c r="BQ42" s="15"/>
+      <c r="BR42" s="15"/>
+      <c r="BS42" s="15"/>
+      <c r="BT42" s="15"/>
     </row>
     <row r="43" spans="17:72" x14ac:dyDescent="0.2">
       <c r="Q43">
         <v>38</v>
       </c>
-      <c r="R43" t="s">
+      <c r="R43" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S43">
         <v>4</v>
       </c>
-      <c r="T43" s="22"/>
+      <c r="T43" s="12"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="15"/>
@@ -3871,57 +4010,57 @@
       <c r="AE43" s="15"/>
       <c r="AF43" s="15"/>
       <c r="AG43" s="15"/>
-      <c r="AH43" s="21"/>
-      <c r="AI43" s="21"/>
-      <c r="AJ43" s="21"/>
-      <c r="AK43" s="21"/>
-      <c r="AL43" s="21"/>
-      <c r="AM43" s="21"/>
-      <c r="AN43" s="21"/>
-      <c r="AO43" s="21"/>
-      <c r="AP43" s="21"/>
-      <c r="AQ43" s="21"/>
-      <c r="AR43" s="21"/>
-      <c r="AS43" s="21"/>
-      <c r="AT43" s="21"/>
-      <c r="AU43" s="21"/>
-      <c r="AV43" s="21"/>
-      <c r="AW43" s="21"/>
-      <c r="AX43" s="21"/>
-      <c r="AY43" s="21"/>
-      <c r="AZ43" s="21"/>
-      <c r="BA43" s="21"/>
-      <c r="BB43" s="21"/>
-      <c r="BC43" s="21"/>
-      <c r="BD43" s="21"/>
-      <c r="BE43" s="21"/>
-      <c r="BF43" s="21"/>
-      <c r="BG43" s="21"/>
-      <c r="BH43" s="21"/>
-      <c r="BI43" s="21"/>
-      <c r="BJ43" s="21"/>
-      <c r="BK43" s="21"/>
-      <c r="BL43" s="21"/>
-      <c r="BM43" s="21"/>
-      <c r="BN43" s="21"/>
-      <c r="BO43" s="21"/>
-      <c r="BP43" s="21"/>
-      <c r="BQ43" s="21"/>
-      <c r="BR43" s="21"/>
-      <c r="BS43" s="21"/>
-      <c r="BT43" s="21"/>
+      <c r="AH43" s="15"/>
+      <c r="AI43" s="15"/>
+      <c r="AJ43" s="15"/>
+      <c r="AK43" s="15"/>
+      <c r="AL43" s="15"/>
+      <c r="AM43" s="15"/>
+      <c r="AN43" s="15"/>
+      <c r="AO43" s="15"/>
+      <c r="AP43" s="15"/>
+      <c r="AQ43" s="15"/>
+      <c r="AR43" s="15"/>
+      <c r="AS43" s="15"/>
+      <c r="AT43" s="15"/>
+      <c r="AU43" s="15"/>
+      <c r="AV43" s="15"/>
+      <c r="AW43" s="15"/>
+      <c r="AX43" s="15"/>
+      <c r="AY43" s="15"/>
+      <c r="AZ43" s="15"/>
+      <c r="BA43" s="15"/>
+      <c r="BB43" s="15"/>
+      <c r="BC43" s="15"/>
+      <c r="BD43" s="15"/>
+      <c r="BE43" s="15"/>
+      <c r="BF43" s="14"/>
+      <c r="BG43" s="15"/>
+      <c r="BH43" s="15"/>
+      <c r="BI43" s="15"/>
+      <c r="BJ43" s="15"/>
+      <c r="BK43" s="15"/>
+      <c r="BL43" s="15"/>
+      <c r="BM43" s="15"/>
+      <c r="BN43" s="15"/>
+      <c r="BO43" s="15"/>
+      <c r="BP43" s="15"/>
+      <c r="BQ43" s="15"/>
+      <c r="BR43" s="15"/>
+      <c r="BS43" s="15"/>
+      <c r="BT43" s="15"/>
     </row>
     <row r="44" spans="17:72" x14ac:dyDescent="0.2">
       <c r="Q44">
         <v>39</v>
       </c>
-      <c r="R44" t="s">
+      <c r="R44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S44">
         <v>6</v>
       </c>
-      <c r="T44" s="22"/>
+      <c r="T44" s="12"/>
       <c r="U44" s="15"/>
       <c r="V44" s="15"/>
       <c r="W44" s="15"/>
@@ -3934,58 +4073,58 @@
       <c r="AD44" s="15"/>
       <c r="AE44" s="15"/>
       <c r="AF44" s="15"/>
-      <c r="AG44" s="21"/>
-      <c r="AH44" s="21"/>
-      <c r="AI44" s="21"/>
-      <c r="AJ44" s="21"/>
-      <c r="AK44" s="21"/>
-      <c r="AL44" s="21"/>
-      <c r="AM44" s="21"/>
-      <c r="AN44" s="21"/>
-      <c r="AO44" s="21"/>
-      <c r="AP44" s="21"/>
-      <c r="AQ44" s="21"/>
-      <c r="AR44" s="21"/>
-      <c r="AS44" s="21"/>
-      <c r="AT44" s="21"/>
-      <c r="AU44" s="21"/>
-      <c r="AV44" s="21"/>
-      <c r="AW44" s="21"/>
-      <c r="AX44" s="21"/>
-      <c r="AY44" s="21"/>
-      <c r="AZ44" s="21"/>
-      <c r="BA44" s="21"/>
-      <c r="BB44" s="21"/>
-      <c r="BC44" s="21"/>
-      <c r="BD44" s="21"/>
-      <c r="BE44" s="21"/>
-      <c r="BF44" s="21"/>
-      <c r="BG44" s="21"/>
-      <c r="BH44" s="21"/>
-      <c r="BI44" s="21"/>
-      <c r="BJ44" s="21"/>
-      <c r="BK44" s="21"/>
-      <c r="BL44" s="21"/>
-      <c r="BM44" s="21"/>
-      <c r="BN44" s="21"/>
-      <c r="BO44" s="21"/>
-      <c r="BP44" s="21"/>
-      <c r="BQ44" s="21"/>
-      <c r="BR44" s="21"/>
-      <c r="BS44" s="21"/>
-      <c r="BT44" s="21"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="15"/>
+      <c r="AI44" s="15"/>
+      <c r="AJ44" s="15"/>
+      <c r="AK44" s="15"/>
+      <c r="AL44" s="15"/>
+      <c r="AM44" s="15"/>
+      <c r="AN44" s="15"/>
+      <c r="AO44" s="15"/>
+      <c r="AP44" s="15"/>
+      <c r="AQ44" s="15"/>
+      <c r="AR44" s="15"/>
+      <c r="AS44" s="15"/>
+      <c r="AT44" s="15"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="15"/>
+      <c r="AW44" s="15"/>
+      <c r="AX44" s="15"/>
+      <c r="AY44" s="15"/>
+      <c r="AZ44" s="15"/>
+      <c r="BA44" s="15"/>
+      <c r="BB44" s="15"/>
+      <c r="BC44" s="15"/>
+      <c r="BD44" s="15"/>
+      <c r="BE44" s="15"/>
+      <c r="BF44" s="15"/>
+      <c r="BG44" s="14"/>
+      <c r="BH44" s="15"/>
+      <c r="BI44" s="15"/>
+      <c r="BJ44" s="15"/>
+      <c r="BK44" s="15"/>
+      <c r="BL44" s="15"/>
+      <c r="BM44" s="15"/>
+      <c r="BN44" s="15"/>
+      <c r="BO44" s="15"/>
+      <c r="BP44" s="15"/>
+      <c r="BQ44" s="15"/>
+      <c r="BR44" s="15"/>
+      <c r="BS44" s="15"/>
+      <c r="BT44" s="15"/>
     </row>
     <row r="45" spans="17:72" x14ac:dyDescent="0.2">
       <c r="Q45">
         <v>40</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R45" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S45">
         <v>4</v>
       </c>
-      <c r="T45" s="22"/>
+      <c r="T45" s="12"/>
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
       <c r="W45" s="15"/>
@@ -3997,59 +4136,59 @@
       <c r="AC45" s="15"/>
       <c r="AD45" s="15"/>
       <c r="AE45" s="15"/>
-      <c r="AF45" s="21"/>
-      <c r="AG45" s="21"/>
-      <c r="AH45" s="21"/>
-      <c r="AI45" s="21"/>
-      <c r="AJ45" s="21"/>
-      <c r="AK45" s="21"/>
-      <c r="AL45" s="21"/>
-      <c r="AM45" s="21"/>
-      <c r="AN45" s="21"/>
-      <c r="AO45" s="21"/>
-      <c r="AP45" s="21"/>
-      <c r="AQ45" s="21"/>
-      <c r="AR45" s="21"/>
-      <c r="AS45" s="21"/>
-      <c r="AT45" s="21"/>
-      <c r="AU45" s="21"/>
-      <c r="AV45" s="21"/>
-      <c r="AW45" s="21"/>
-      <c r="AX45" s="21"/>
-      <c r="AY45" s="21"/>
-      <c r="AZ45" s="21"/>
-      <c r="BA45" s="21"/>
-      <c r="BB45" s="21"/>
-      <c r="BC45" s="21"/>
-      <c r="BD45" s="21"/>
-      <c r="BE45" s="21"/>
-      <c r="BF45" s="21"/>
-      <c r="BG45" s="21"/>
-      <c r="BH45" s="21"/>
-      <c r="BI45" s="21"/>
-      <c r="BJ45" s="21"/>
-      <c r="BK45" s="21"/>
-      <c r="BL45" s="21"/>
-      <c r="BM45" s="21"/>
-      <c r="BN45" s="21"/>
-      <c r="BO45" s="21"/>
-      <c r="BP45" s="21"/>
-      <c r="BQ45" s="21"/>
-      <c r="BR45" s="21"/>
-      <c r="BS45" s="21"/>
-      <c r="BT45" s="21"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="15"/>
+      <c r="AH45" s="15"/>
+      <c r="AI45" s="15"/>
+      <c r="AJ45" s="15"/>
+      <c r="AK45" s="15"/>
+      <c r="AL45" s="15"/>
+      <c r="AM45" s="15"/>
+      <c r="AN45" s="15"/>
+      <c r="AO45" s="15"/>
+      <c r="AP45" s="15"/>
+      <c r="AQ45" s="15"/>
+      <c r="AR45" s="15"/>
+      <c r="AS45" s="15"/>
+      <c r="AT45" s="15"/>
+      <c r="AU45" s="15"/>
+      <c r="AV45" s="15"/>
+      <c r="AW45" s="15"/>
+      <c r="AX45" s="15"/>
+      <c r="AY45" s="15"/>
+      <c r="AZ45" s="15"/>
+      <c r="BA45" s="15"/>
+      <c r="BB45" s="15"/>
+      <c r="BC45" s="15"/>
+      <c r="BD45" s="15"/>
+      <c r="BE45" s="15"/>
+      <c r="BF45" s="15"/>
+      <c r="BG45" s="15"/>
+      <c r="BH45" s="14"/>
+      <c r="BI45" s="15"/>
+      <c r="BJ45" s="15"/>
+      <c r="BK45" s="15"/>
+      <c r="BL45" s="15"/>
+      <c r="BM45" s="15"/>
+      <c r="BN45" s="15"/>
+      <c r="BO45" s="15"/>
+      <c r="BP45" s="15"/>
+      <c r="BQ45" s="15"/>
+      <c r="BR45" s="15"/>
+      <c r="BS45" s="15"/>
+      <c r="BT45" s="15"/>
     </row>
     <row r="46" spans="17:72" x14ac:dyDescent="0.2">
       <c r="Q46">
         <v>41</v>
       </c>
-      <c r="R46" t="s">
+      <c r="R46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="S46">
         <v>4</v>
       </c>
-      <c r="T46" s="22"/>
+      <c r="T46" s="12"/>
       <c r="U46" s="15"/>
       <c r="V46" s="15"/>
       <c r="W46" s="15"/>
@@ -4060,60 +4199,60 @@
       <c r="AB46" s="15"/>
       <c r="AC46" s="15"/>
       <c r="AD46" s="15"/>
-      <c r="AE46" s="21"/>
-      <c r="AF46" s="21"/>
-      <c r="AG46" s="21"/>
-      <c r="AH46" s="21"/>
-      <c r="AI46" s="21"/>
-      <c r="AJ46" s="21"/>
-      <c r="AK46" s="21"/>
-      <c r="AL46" s="21"/>
-      <c r="AM46" s="21"/>
-      <c r="AN46" s="21"/>
-      <c r="AO46" s="21"/>
-      <c r="AP46" s="21"/>
-      <c r="AQ46" s="21"/>
-      <c r="AR46" s="21"/>
-      <c r="AS46" s="21"/>
-      <c r="AT46" s="21"/>
-      <c r="AU46" s="21"/>
-      <c r="AV46" s="21"/>
-      <c r="AW46" s="21"/>
-      <c r="AX46" s="21"/>
-      <c r="AY46" s="21"/>
-      <c r="AZ46" s="21"/>
-      <c r="BA46" s="21"/>
-      <c r="BB46" s="21"/>
-      <c r="BC46" s="21"/>
-      <c r="BD46" s="21"/>
-      <c r="BE46" s="21"/>
-      <c r="BF46" s="21"/>
-      <c r="BG46" s="21"/>
-      <c r="BH46" s="21"/>
-      <c r="BI46" s="21"/>
-      <c r="BJ46" s="21"/>
-      <c r="BK46" s="21"/>
-      <c r="BL46" s="21"/>
-      <c r="BM46" s="21"/>
-      <c r="BN46" s="21"/>
-      <c r="BO46" s="21"/>
-      <c r="BP46" s="21"/>
-      <c r="BQ46" s="21"/>
-      <c r="BR46" s="21"/>
-      <c r="BS46" s="21"/>
-      <c r="BT46" s="21"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="15"/>
+      <c r="AI46" s="15"/>
+      <c r="AJ46" s="15"/>
+      <c r="AK46" s="15"/>
+      <c r="AL46" s="15"/>
+      <c r="AM46" s="15"/>
+      <c r="AN46" s="15"/>
+      <c r="AO46" s="15"/>
+      <c r="AP46" s="15"/>
+      <c r="AQ46" s="15"/>
+      <c r="AR46" s="15"/>
+      <c r="AS46" s="15"/>
+      <c r="AT46" s="15"/>
+      <c r="AU46" s="15"/>
+      <c r="AV46" s="15"/>
+      <c r="AW46" s="15"/>
+      <c r="AX46" s="15"/>
+      <c r="AY46" s="15"/>
+      <c r="AZ46" s="15"/>
+      <c r="BA46" s="15"/>
+      <c r="BB46" s="15"/>
+      <c r="BC46" s="15"/>
+      <c r="BD46" s="15"/>
+      <c r="BE46" s="15"/>
+      <c r="BF46" s="15"/>
+      <c r="BG46" s="15"/>
+      <c r="BH46" s="15"/>
+      <c r="BI46" s="14"/>
+      <c r="BJ46" s="15"/>
+      <c r="BK46" s="15"/>
+      <c r="BL46" s="15"/>
+      <c r="BM46" s="15"/>
+      <c r="BN46" s="15"/>
+      <c r="BO46" s="15"/>
+      <c r="BP46" s="15"/>
+      <c r="BQ46" s="15"/>
+      <c r="BR46" s="15"/>
+      <c r="BS46" s="15"/>
+      <c r="BT46" s="15"/>
     </row>
     <row r="47" spans="17:72" x14ac:dyDescent="0.2">
       <c r="Q47">
         <v>42</v>
       </c>
-      <c r="R47" t="s">
+      <c r="R47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S47">
         <v>6</v>
       </c>
-      <c r="T47" s="22"/>
+      <c r="T47" s="12"/>
       <c r="U47" s="15"/>
       <c r="V47" s="15"/>
       <c r="W47" s="15"/>
@@ -4123,61 +4262,61 @@
       <c r="AA47" s="15"/>
       <c r="AB47" s="15"/>
       <c r="AC47" s="15"/>
-      <c r="AD47" s="21"/>
-      <c r="AE47" s="21"/>
-      <c r="AF47" s="21"/>
-      <c r="AG47" s="21"/>
-      <c r="AH47" s="21"/>
-      <c r="AI47" s="21"/>
-      <c r="AJ47" s="21"/>
-      <c r="AK47" s="21"/>
-      <c r="AL47" s="21"/>
-      <c r="AM47" s="21"/>
-      <c r="AN47" s="21"/>
-      <c r="AO47" s="21"/>
-      <c r="AP47" s="21"/>
-      <c r="AQ47" s="21"/>
-      <c r="AR47" s="21"/>
-      <c r="AS47" s="21"/>
-      <c r="AT47" s="21"/>
-      <c r="AU47" s="21"/>
-      <c r="AV47" s="21"/>
-      <c r="AW47" s="21"/>
-      <c r="AX47" s="21"/>
-      <c r="AY47" s="21"/>
-      <c r="AZ47" s="21"/>
-      <c r="BA47" s="21"/>
-      <c r="BB47" s="21"/>
-      <c r="BC47" s="21"/>
-      <c r="BD47" s="21"/>
-      <c r="BE47" s="21"/>
-      <c r="BF47" s="21"/>
-      <c r="BG47" s="21"/>
-      <c r="BH47" s="21"/>
-      <c r="BI47" s="21"/>
-      <c r="BJ47" s="21"/>
-      <c r="BK47" s="21"/>
-      <c r="BL47" s="21"/>
-      <c r="BM47" s="21"/>
-      <c r="BN47" s="21"/>
-      <c r="BO47" s="21"/>
-      <c r="BP47" s="21"/>
-      <c r="BQ47" s="21"/>
-      <c r="BR47" s="21"/>
-      <c r="BS47" s="21"/>
-      <c r="BT47" s="21"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="15"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="15"/>
+      <c r="AH47" s="15"/>
+      <c r="AI47" s="15"/>
+      <c r="AJ47" s="15"/>
+      <c r="AK47" s="15"/>
+      <c r="AL47" s="15"/>
+      <c r="AM47" s="15"/>
+      <c r="AN47" s="15"/>
+      <c r="AO47" s="15"/>
+      <c r="AP47" s="15"/>
+      <c r="AQ47" s="15"/>
+      <c r="AR47" s="15"/>
+      <c r="AS47" s="15"/>
+      <c r="AT47" s="15"/>
+      <c r="AU47" s="15"/>
+      <c r="AV47" s="15"/>
+      <c r="AW47" s="15"/>
+      <c r="AX47" s="15"/>
+      <c r="AY47" s="15"/>
+      <c r="AZ47" s="15"/>
+      <c r="BA47" s="15"/>
+      <c r="BB47" s="15"/>
+      <c r="BC47" s="15"/>
+      <c r="BD47" s="15"/>
+      <c r="BE47" s="15"/>
+      <c r="BF47" s="15"/>
+      <c r="BG47" s="15"/>
+      <c r="BH47" s="15"/>
+      <c r="BI47" s="15"/>
+      <c r="BJ47" s="14"/>
+      <c r="BK47" s="15"/>
+      <c r="BL47" s="15"/>
+      <c r="BM47" s="15"/>
+      <c r="BN47" s="15"/>
+      <c r="BO47" s="15"/>
+      <c r="BP47" s="15"/>
+      <c r="BQ47" s="15"/>
+      <c r="BR47" s="15"/>
+      <c r="BS47" s="15"/>
+      <c r="BT47" s="15"/>
     </row>
     <row r="48" spans="17:72" x14ac:dyDescent="0.2">
       <c r="Q48">
         <v>43</v>
       </c>
-      <c r="R48" s="2" t="s">
+      <c r="R48" s="22" t="s">
         <v>16</v>
       </c>
       <c r="S48">
         <v>4</v>
       </c>
-      <c r="T48" s="22"/>
+      <c r="T48" s="12"/>
       <c r="U48" s="15"/>
       <c r="V48" s="15"/>
       <c r="W48" s="15"/>
@@ -4186,62 +4325,62 @@
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
       <c r="AB48" s="15"/>
-      <c r="AC48" s="21"/>
-      <c r="AD48" s="21"/>
-      <c r="AE48" s="21"/>
-      <c r="AF48" s="21"/>
-      <c r="AG48" s="21"/>
-      <c r="AH48" s="21"/>
-      <c r="AI48" s="21"/>
-      <c r="AJ48" s="21"/>
-      <c r="AK48" s="21"/>
-      <c r="AL48" s="21"/>
-      <c r="AM48" s="21"/>
-      <c r="AN48" s="21"/>
-      <c r="AO48" s="21"/>
-      <c r="AP48" s="21"/>
-      <c r="AQ48" s="21"/>
-      <c r="AR48" s="21"/>
-      <c r="AS48" s="21"/>
-      <c r="AT48" s="21"/>
-      <c r="AU48" s="21"/>
-      <c r="AV48" s="21"/>
-      <c r="AW48" s="21"/>
-      <c r="AX48" s="21"/>
-      <c r="AY48" s="21"/>
-      <c r="AZ48" s="21"/>
-      <c r="BA48" s="21"/>
-      <c r="BB48" s="21"/>
-      <c r="BC48" s="21"/>
-      <c r="BD48" s="21"/>
-      <c r="BE48" s="21"/>
-      <c r="BF48" s="21"/>
-      <c r="BG48" s="21"/>
-      <c r="BH48" s="21"/>
-      <c r="BI48" s="21"/>
-      <c r="BJ48" s="21"/>
-      <c r="BK48" s="21"/>
-      <c r="BL48" s="21"/>
-      <c r="BM48" s="21"/>
-      <c r="BN48" s="21"/>
-      <c r="BO48" s="21"/>
-      <c r="BP48" s="21"/>
-      <c r="BQ48" s="21"/>
-      <c r="BR48" s="21"/>
-      <c r="BS48" s="21"/>
-      <c r="BT48" s="21"/>
-    </row>
-    <row r="49" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+      <c r="AH48" s="15"/>
+      <c r="AI48" s="15"/>
+      <c r="AJ48" s="15"/>
+      <c r="AK48" s="15"/>
+      <c r="AL48" s="15"/>
+      <c r="AM48" s="15"/>
+      <c r="AN48" s="15"/>
+      <c r="AO48" s="15"/>
+      <c r="AP48" s="15"/>
+      <c r="AQ48" s="15"/>
+      <c r="AR48" s="15"/>
+      <c r="AS48" s="15"/>
+      <c r="AT48" s="15"/>
+      <c r="AU48" s="15"/>
+      <c r="AV48" s="15"/>
+      <c r="AW48" s="15"/>
+      <c r="AX48" s="15"/>
+      <c r="AY48" s="15"/>
+      <c r="AZ48" s="15"/>
+      <c r="BA48" s="15"/>
+      <c r="BB48" s="15"/>
+      <c r="BC48" s="15"/>
+      <c r="BD48" s="15"/>
+      <c r="BE48" s="15"/>
+      <c r="BF48" s="15"/>
+      <c r="BG48" s="15"/>
+      <c r="BH48" s="15"/>
+      <c r="BI48" s="15"/>
+      <c r="BJ48" s="15"/>
+      <c r="BK48" s="14"/>
+      <c r="BL48" s="15"/>
+      <c r="BM48" s="15"/>
+      <c r="BN48" s="15"/>
+      <c r="BO48" s="15"/>
+      <c r="BP48" s="15"/>
+      <c r="BQ48" s="15"/>
+      <c r="BR48" s="15"/>
+      <c r="BS48" s="15"/>
+      <c r="BT48" s="15"/>
+    </row>
+    <row r="49" spans="17:77" x14ac:dyDescent="0.2">
       <c r="Q49">
         <v>44</v>
       </c>
-      <c r="R49" t="s">
+      <c r="R49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S49">
         <v>4</v>
       </c>
-      <c r="T49" s="22"/>
+      <c r="T49" s="12"/>
       <c r="U49" s="15"/>
       <c r="V49" s="15"/>
       <c r="W49" s="15"/>
@@ -4249,565 +4388,594 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
       <c r="AA49" s="15"/>
-      <c r="AB49" s="21"/>
-      <c r="AC49" s="21"/>
-      <c r="AD49" s="21"/>
-      <c r="AE49" s="21"/>
-      <c r="AF49" s="21"/>
-      <c r="AG49" s="21"/>
-      <c r="AH49" s="21"/>
-      <c r="AI49" s="21"/>
-      <c r="AJ49" s="21"/>
-      <c r="AK49" s="21"/>
-      <c r="AL49" s="21"/>
-      <c r="AM49" s="21"/>
-      <c r="AN49" s="21"/>
-      <c r="AO49" s="21"/>
-      <c r="AP49" s="21"/>
-      <c r="AQ49" s="21"/>
-      <c r="AR49" s="21"/>
-      <c r="AS49" s="21"/>
-      <c r="AT49" s="21"/>
-      <c r="AU49" s="21"/>
-      <c r="AV49" s="21"/>
-      <c r="AW49" s="21"/>
-      <c r="AX49" s="21"/>
-      <c r="AY49" s="21"/>
-      <c r="AZ49" s="21"/>
-      <c r="BA49" s="21"/>
-      <c r="BB49" s="21"/>
-      <c r="BC49" s="21"/>
-      <c r="BD49" s="21"/>
-      <c r="BE49" s="21"/>
-      <c r="BF49" s="21"/>
-      <c r="BG49" s="21"/>
-      <c r="BH49" s="21"/>
-      <c r="BI49" s="21"/>
-      <c r="BJ49" s="21"/>
-      <c r="BK49" s="21"/>
-      <c r="BL49" s="21"/>
-      <c r="BM49" s="21"/>
-      <c r="BN49" s="21"/>
-      <c r="BO49" s="21"/>
-      <c r="BP49" s="21"/>
-      <c r="BQ49" s="21"/>
-      <c r="BR49" s="21"/>
-      <c r="BS49" s="21"/>
-      <c r="BT49" s="21"/>
-    </row>
-    <row r="50" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="15"/>
+      <c r="AF49" s="15"/>
+      <c r="AG49" s="15"/>
+      <c r="AH49" s="15"/>
+      <c r="AI49" s="15"/>
+      <c r="AJ49" s="15"/>
+      <c r="AK49" s="15"/>
+      <c r="AL49" s="15"/>
+      <c r="AM49" s="15"/>
+      <c r="AN49" s="15"/>
+      <c r="AO49" s="15"/>
+      <c r="AP49" s="15"/>
+      <c r="AQ49" s="15"/>
+      <c r="AR49" s="15"/>
+      <c r="AS49" s="15"/>
+      <c r="AT49" s="15"/>
+      <c r="AU49" s="15"/>
+      <c r="AV49" s="15"/>
+      <c r="AW49" s="15"/>
+      <c r="AX49" s="15"/>
+      <c r="AY49" s="15"/>
+      <c r="AZ49" s="15"/>
+      <c r="BA49" s="15"/>
+      <c r="BB49" s="15"/>
+      <c r="BC49" s="15"/>
+      <c r="BD49" s="15"/>
+      <c r="BE49" s="15"/>
+      <c r="BF49" s="15"/>
+      <c r="BG49" s="15"/>
+      <c r="BH49" s="15"/>
+      <c r="BI49" s="15"/>
+      <c r="BJ49" s="15"/>
+      <c r="BK49" s="15"/>
+      <c r="BL49" s="14"/>
+      <c r="BM49" s="15"/>
+      <c r="BN49" s="15"/>
+      <c r="BO49" s="15"/>
+      <c r="BP49" s="15"/>
+      <c r="BQ49" s="15"/>
+      <c r="BR49" s="15"/>
+      <c r="BS49" s="15"/>
+      <c r="BT49" s="15"/>
+    </row>
+    <row r="50" spans="17:77" x14ac:dyDescent="0.2">
       <c r="Q50">
         <v>45</v>
       </c>
-      <c r="R50" t="s">
+      <c r="R50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="S50">
         <v>6</v>
       </c>
-      <c r="T50" s="22"/>
+      <c r="T50" s="12"/>
       <c r="U50" s="15"/>
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
       <c r="X50" s="15"/>
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
-      <c r="AA50" s="21"/>
-      <c r="AB50" s="21"/>
-      <c r="AC50" s="21"/>
-      <c r="AD50" s="21"/>
-      <c r="AE50" s="21"/>
-      <c r="AF50" s="21"/>
-      <c r="AG50" s="21"/>
-      <c r="AH50" s="21"/>
-      <c r="AI50" s="21"/>
-      <c r="AJ50" s="21"/>
-      <c r="AK50" s="21"/>
-      <c r="AL50" s="21"/>
-      <c r="AM50" s="21"/>
-      <c r="AN50" s="21"/>
-      <c r="AO50" s="21"/>
-      <c r="AP50" s="21"/>
-      <c r="AQ50" s="21"/>
-      <c r="AR50" s="21"/>
-      <c r="AS50" s="21"/>
-      <c r="AT50" s="21"/>
-      <c r="AU50" s="21"/>
-      <c r="AV50" s="21"/>
-      <c r="AW50" s="21"/>
-      <c r="AX50" s="21"/>
-      <c r="AY50" s="21"/>
-      <c r="AZ50" s="21"/>
-      <c r="BA50" s="21"/>
-      <c r="BB50" s="21"/>
-      <c r="BC50" s="21"/>
-      <c r="BD50" s="21"/>
-      <c r="BE50" s="21"/>
-      <c r="BF50" s="21"/>
-      <c r="BG50" s="21"/>
-      <c r="BH50" s="21"/>
-      <c r="BI50" s="21"/>
-      <c r="BJ50" s="21"/>
-      <c r="BK50" s="21"/>
-      <c r="BL50" s="21"/>
-      <c r="BM50" s="21"/>
-      <c r="BN50" s="21"/>
-      <c r="BO50" s="21"/>
-      <c r="BP50" s="21"/>
-      <c r="BQ50" s="21"/>
-      <c r="BR50" s="21"/>
-      <c r="BS50" s="21"/>
-      <c r="BT50" s="21"/>
-    </row>
-    <row r="51" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="15"/>
+      <c r="AG50" s="15"/>
+      <c r="AH50" s="15"/>
+      <c r="AI50" s="15"/>
+      <c r="AJ50" s="15"/>
+      <c r="AK50" s="15"/>
+      <c r="AL50" s="15"/>
+      <c r="AM50" s="15"/>
+      <c r="AN50" s="15"/>
+      <c r="AO50" s="15"/>
+      <c r="AP50" s="15"/>
+      <c r="AQ50" s="15"/>
+      <c r="AR50" s="15"/>
+      <c r="AS50" s="15"/>
+      <c r="AT50" s="15"/>
+      <c r="AU50" s="15"/>
+      <c r="AV50" s="15"/>
+      <c r="AW50" s="15"/>
+      <c r="AX50" s="15"/>
+      <c r="AY50" s="15"/>
+      <c r="AZ50" s="15"/>
+      <c r="BA50" s="15"/>
+      <c r="BB50" s="15"/>
+      <c r="BC50" s="15"/>
+      <c r="BD50" s="15"/>
+      <c r="BE50" s="15"/>
+      <c r="BF50" s="15"/>
+      <c r="BG50" s="15"/>
+      <c r="BH50" s="15"/>
+      <c r="BI50" s="15"/>
+      <c r="BJ50" s="15"/>
+      <c r="BK50" s="15"/>
+      <c r="BL50" s="15"/>
+      <c r="BM50" s="14"/>
+      <c r="BN50" s="15"/>
+      <c r="BO50" s="15"/>
+      <c r="BP50" s="15"/>
+      <c r="BQ50" s="15"/>
+      <c r="BR50" s="15"/>
+      <c r="BS50" s="15"/>
+      <c r="BT50" s="15"/>
+    </row>
+    <row r="51" spans="17:77" x14ac:dyDescent="0.2">
       <c r="Q51">
         <v>46</v>
       </c>
-      <c r="R51" t="s">
+      <c r="R51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="S51">
         <v>4</v>
       </c>
-      <c r="T51" s="22"/>
+      <c r="T51" s="12"/>
       <c r="U51" s="15"/>
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
       <c r="X51" s="15"/>
       <c r="Y51" s="15"/>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="21"/>
-      <c r="AB51" s="21"/>
-      <c r="AC51" s="21"/>
-      <c r="AD51" s="21"/>
-      <c r="AE51" s="21"/>
-      <c r="AF51" s="21"/>
-      <c r="AG51" s="21"/>
-      <c r="AH51" s="21"/>
-      <c r="AI51" s="21"/>
-      <c r="AJ51" s="21"/>
-      <c r="AK51" s="21"/>
-      <c r="AL51" s="21"/>
-      <c r="AM51" s="21"/>
-      <c r="AN51" s="21"/>
-      <c r="AO51" s="21"/>
-      <c r="AP51" s="21"/>
-      <c r="AQ51" s="21"/>
-      <c r="AR51" s="21"/>
-      <c r="AS51" s="21"/>
-      <c r="AT51" s="21"/>
-      <c r="AU51" s="21"/>
-      <c r="AV51" s="21"/>
-      <c r="AW51" s="21"/>
-      <c r="AX51" s="21"/>
-      <c r="AY51" s="21"/>
-      <c r="AZ51" s="21"/>
-      <c r="BA51" s="21"/>
-      <c r="BB51" s="21"/>
-      <c r="BC51" s="21"/>
-      <c r="BD51" s="21"/>
-      <c r="BE51" s="21"/>
-      <c r="BF51" s="21"/>
-      <c r="BG51" s="21"/>
-      <c r="BH51" s="21"/>
-      <c r="BI51" s="21"/>
-      <c r="BJ51" s="21"/>
-      <c r="BK51" s="21"/>
-      <c r="BL51" s="21"/>
-      <c r="BM51" s="21"/>
-      <c r="BN51" s="21"/>
-      <c r="BO51" s="21"/>
-      <c r="BP51" s="21"/>
-      <c r="BQ51" s="21"/>
-      <c r="BR51" s="21"/>
-      <c r="BS51" s="21"/>
-      <c r="BT51" s="21"/>
-    </row>
-    <row r="52" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="15"/>
+      <c r="AE51" s="15"/>
+      <c r="AF51" s="15"/>
+      <c r="AG51" s="15"/>
+      <c r="AH51" s="15"/>
+      <c r="AI51" s="15"/>
+      <c r="AJ51" s="15"/>
+      <c r="AK51" s="15"/>
+      <c r="AL51" s="15"/>
+      <c r="AM51" s="15"/>
+      <c r="AN51" s="15"/>
+      <c r="AO51" s="15"/>
+      <c r="AP51" s="15"/>
+      <c r="AQ51" s="15"/>
+      <c r="AR51" s="15"/>
+      <c r="AS51" s="15"/>
+      <c r="AT51" s="15"/>
+      <c r="AU51" s="15"/>
+      <c r="AV51" s="15"/>
+      <c r="AW51" s="15"/>
+      <c r="AX51" s="15"/>
+      <c r="AY51" s="15"/>
+      <c r="AZ51" s="15"/>
+      <c r="BA51" s="15"/>
+      <c r="BB51" s="15"/>
+      <c r="BC51" s="15"/>
+      <c r="BD51" s="15"/>
+      <c r="BE51" s="15"/>
+      <c r="BF51" s="15"/>
+      <c r="BG51" s="15"/>
+      <c r="BH51" s="15"/>
+      <c r="BI51" s="15"/>
+      <c r="BJ51" s="15"/>
+      <c r="BK51" s="15"/>
+      <c r="BL51" s="15"/>
+      <c r="BM51" s="15"/>
+      <c r="BN51" s="14"/>
+      <c r="BO51" s="15"/>
+      <c r="BP51" s="15"/>
+      <c r="BQ51" s="15"/>
+      <c r="BR51" s="15"/>
+      <c r="BS51" s="15"/>
+      <c r="BT51" s="15"/>
+    </row>
+    <row r="52" spans="17:77" x14ac:dyDescent="0.2">
       <c r="Q52">
         <v>47</v>
       </c>
-      <c r="R52" s="2" t="s">
+      <c r="R52" s="22" t="s">
         <v>17</v>
       </c>
       <c r="S52" s="2">
         <v>4</v>
       </c>
-      <c r="T52" s="22"/>
+      <c r="T52" s="12"/>
       <c r="U52" s="15"/>
       <c r="V52" s="15"/>
       <c r="W52" s="15"/>
       <c r="X52" s="15"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="21"/>
-      <c r="AA52" s="21"/>
-      <c r="AB52" s="21"/>
-      <c r="AC52" s="21"/>
-      <c r="AD52" s="21"/>
-      <c r="AE52" s="21"/>
-      <c r="AF52" s="21"/>
-      <c r="AG52" s="21"/>
-      <c r="AH52" s="21"/>
-      <c r="AI52" s="21"/>
-      <c r="AJ52" s="21"/>
-      <c r="AK52" s="21"/>
-      <c r="AL52" s="21"/>
-      <c r="AM52" s="21"/>
-      <c r="AN52" s="21"/>
-      <c r="AO52" s="21"/>
-      <c r="AP52" s="21"/>
-      <c r="AQ52" s="21"/>
-      <c r="AR52" s="21"/>
-      <c r="AS52" s="21"/>
-      <c r="AT52" s="21"/>
-      <c r="AU52" s="21"/>
-      <c r="AV52" s="21"/>
-      <c r="AW52" s="21"/>
-      <c r="AX52" s="21"/>
-      <c r="AY52" s="21"/>
-      <c r="AZ52" s="21"/>
-      <c r="BA52" s="21"/>
-      <c r="BB52" s="21"/>
-      <c r="BC52" s="21"/>
-      <c r="BD52" s="21"/>
-      <c r="BE52" s="21"/>
-      <c r="BF52" s="21"/>
-      <c r="BG52" s="21"/>
-      <c r="BH52" s="21"/>
-      <c r="BI52" s="21"/>
-      <c r="BJ52" s="21"/>
-      <c r="BK52" s="21"/>
-      <c r="BL52" s="21"/>
-      <c r="BM52" s="21"/>
-      <c r="BN52" s="21"/>
-      <c r="BO52" s="21"/>
-      <c r="BP52" s="21"/>
-      <c r="BQ52" s="21"/>
-      <c r="BR52" s="21"/>
-      <c r="BS52" s="21"/>
-      <c r="BT52" s="21"/>
-    </row>
-    <row r="53" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15"/>
+      <c r="AE52" s="15"/>
+      <c r="AF52" s="15"/>
+      <c r="AG52" s="15"/>
+      <c r="AH52" s="15"/>
+      <c r="AI52" s="15"/>
+      <c r="AJ52" s="15"/>
+      <c r="AK52" s="15"/>
+      <c r="AL52" s="15"/>
+      <c r="AM52" s="15"/>
+      <c r="AN52" s="15"/>
+      <c r="AO52" s="15"/>
+      <c r="AP52" s="15"/>
+      <c r="AQ52" s="15"/>
+      <c r="AR52" s="15"/>
+      <c r="AS52" s="15"/>
+      <c r="AT52" s="15"/>
+      <c r="AU52" s="15"/>
+      <c r="AV52" s="15"/>
+      <c r="AW52" s="15"/>
+      <c r="AX52" s="15"/>
+      <c r="AY52" s="15"/>
+      <c r="AZ52" s="15"/>
+      <c r="BA52" s="15"/>
+      <c r="BB52" s="15"/>
+      <c r="BC52" s="15"/>
+      <c r="BD52" s="15"/>
+      <c r="BE52" s="15"/>
+      <c r="BF52" s="15"/>
+      <c r="BG52" s="15"/>
+      <c r="BH52" s="15"/>
+      <c r="BI52" s="15"/>
+      <c r="BJ52" s="15"/>
+      <c r="BK52" s="15"/>
+      <c r="BL52" s="15"/>
+      <c r="BM52" s="15"/>
+      <c r="BN52" s="15"/>
+      <c r="BO52" s="14"/>
+      <c r="BP52" s="15"/>
+      <c r="BQ52" s="15"/>
+      <c r="BR52" s="15"/>
+      <c r="BS52" s="15"/>
+      <c r="BT52" s="15"/>
+    </row>
+    <row r="53" spans="17:77" x14ac:dyDescent="0.2">
       <c r="Q53">
         <v>48</v>
       </c>
-      <c r="R53" s="2" t="s">
+      <c r="R53" s="22" t="s">
         <v>18</v>
       </c>
       <c r="S53" s="2">
         <v>6</v>
       </c>
-      <c r="T53" s="22"/>
+      <c r="T53" s="12"/>
       <c r="U53" s="15"/>
       <c r="V53" s="15"/>
       <c r="W53" s="15"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="21"/>
-      <c r="AB53" s="21"/>
-      <c r="AC53" s="21"/>
-      <c r="AD53" s="21"/>
-      <c r="AE53" s="21"/>
-      <c r="AF53" s="21"/>
-      <c r="AG53" s="21"/>
-      <c r="AH53" s="21"/>
-      <c r="AI53" s="21"/>
-      <c r="AJ53" s="21"/>
-      <c r="AK53" s="21"/>
-      <c r="AL53" s="21"/>
-      <c r="AM53" s="21"/>
-      <c r="AN53" s="21"/>
-      <c r="AO53" s="21"/>
-      <c r="AP53" s="21"/>
-      <c r="AQ53" s="21"/>
-      <c r="AR53" s="21"/>
-      <c r="AS53" s="21"/>
-      <c r="AT53" s="21"/>
-      <c r="AU53" s="21"/>
-      <c r="AV53" s="21"/>
-      <c r="AW53" s="21"/>
-      <c r="AX53" s="21"/>
-      <c r="AY53" s="21"/>
-      <c r="AZ53" s="21"/>
-      <c r="BA53" s="21"/>
-      <c r="BB53" s="21"/>
-      <c r="BC53" s="21"/>
-      <c r="BD53" s="21"/>
-      <c r="BE53" s="21"/>
-      <c r="BF53" s="21"/>
-      <c r="BG53" s="21"/>
-      <c r="BH53" s="21"/>
-      <c r="BI53" s="21"/>
-      <c r="BJ53" s="21"/>
-      <c r="BK53" s="21"/>
-      <c r="BL53" s="21"/>
-      <c r="BM53" s="21"/>
-      <c r="BN53" s="21"/>
-      <c r="BO53" s="21"/>
-      <c r="BP53" s="21"/>
-      <c r="BQ53" s="21"/>
-      <c r="BR53" s="21"/>
-      <c r="BS53" s="21"/>
-      <c r="BT53" s="21"/>
-    </row>
-    <row r="54" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="15"/>
+      <c r="AF53" s="15"/>
+      <c r="AG53" s="15"/>
+      <c r="AH53" s="15"/>
+      <c r="AI53" s="15"/>
+      <c r="AJ53" s="15"/>
+      <c r="AK53" s="15"/>
+      <c r="AL53" s="15"/>
+      <c r="AM53" s="15"/>
+      <c r="AN53" s="15"/>
+      <c r="AO53" s="15"/>
+      <c r="AP53" s="15"/>
+      <c r="AQ53" s="15"/>
+      <c r="AR53" s="15"/>
+      <c r="AS53" s="15"/>
+      <c r="AT53" s="15"/>
+      <c r="AU53" s="15"/>
+      <c r="AV53" s="15"/>
+      <c r="AW53" s="15"/>
+      <c r="AX53" s="15"/>
+      <c r="AY53" s="15"/>
+      <c r="AZ53" s="15"/>
+      <c r="BA53" s="15"/>
+      <c r="BB53" s="15"/>
+      <c r="BC53" s="15"/>
+      <c r="BD53" s="15"/>
+      <c r="BE53" s="15"/>
+      <c r="BF53" s="15"/>
+      <c r="BG53" s="15"/>
+      <c r="BH53" s="15"/>
+      <c r="BI53" s="15"/>
+      <c r="BJ53" s="15"/>
+      <c r="BK53" s="15"/>
+      <c r="BL53" s="15"/>
+      <c r="BM53" s="15"/>
+      <c r="BN53" s="15"/>
+      <c r="BO53" s="15"/>
+      <c r="BP53" s="14"/>
+      <c r="BQ53" s="15"/>
+      <c r="BR53" s="15"/>
+      <c r="BS53" s="15"/>
+      <c r="BT53" s="15"/>
+    </row>
+    <row r="54" spans="17:77" x14ac:dyDescent="0.2">
       <c r="Q54">
         <v>49</v>
       </c>
-      <c r="R54" s="2" t="s">
+      <c r="R54" s="22" t="s">
         <v>19</v>
       </c>
       <c r="S54" s="2">
         <v>4</v>
       </c>
-      <c r="T54" s="22"/>
+      <c r="T54" s="12"/>
       <c r="U54" s="15"/>
       <c r="V54" s="15"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="21"/>
-      <c r="AB54" s="21"/>
-      <c r="AC54" s="21"/>
-      <c r="AD54" s="21"/>
-      <c r="AE54" s="21"/>
-      <c r="AF54" s="21"/>
-      <c r="AG54" s="21"/>
-      <c r="AH54" s="21"/>
-      <c r="AI54" s="21"/>
-      <c r="AJ54" s="21"/>
-      <c r="AK54" s="21"/>
-      <c r="AL54" s="21"/>
-      <c r="AM54" s="21"/>
-      <c r="AN54" s="21"/>
-      <c r="AO54" s="21"/>
-      <c r="AP54" s="21"/>
-      <c r="AQ54" s="21"/>
-      <c r="AR54" s="21"/>
-      <c r="AS54" s="21"/>
-      <c r="AT54" s="21"/>
-      <c r="AU54" s="21"/>
-      <c r="AV54" s="21"/>
-      <c r="AW54" s="21"/>
-      <c r="AX54" s="21"/>
-      <c r="AY54" s="21"/>
-      <c r="AZ54" s="21"/>
-      <c r="BA54" s="21"/>
-      <c r="BB54" s="21"/>
-      <c r="BC54" s="21"/>
-      <c r="BD54" s="21"/>
-      <c r="BE54" s="21"/>
-      <c r="BF54" s="21"/>
-      <c r="BG54" s="21"/>
-      <c r="BH54" s="21"/>
-      <c r="BI54" s="21"/>
-      <c r="BJ54" s="21"/>
-      <c r="BK54" s="21"/>
-      <c r="BL54" s="21"/>
-      <c r="BM54" s="21"/>
-      <c r="BN54" s="21"/>
-      <c r="BO54" s="21"/>
-      <c r="BP54" s="21"/>
-      <c r="BQ54" s="21"/>
-      <c r="BR54" s="21"/>
-      <c r="BS54" s="21"/>
-      <c r="BT54" s="21"/>
-    </row>
-    <row r="55" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="15"/>
+      <c r="AG54" s="15"/>
+      <c r="AH54" s="15"/>
+      <c r="AI54" s="15"/>
+      <c r="AJ54" s="15"/>
+      <c r="AK54" s="15"/>
+      <c r="AL54" s="15"/>
+      <c r="AM54" s="15"/>
+      <c r="AN54" s="15"/>
+      <c r="AO54" s="15"/>
+      <c r="AP54" s="15"/>
+      <c r="AQ54" s="15"/>
+      <c r="AR54" s="15"/>
+      <c r="AS54" s="15"/>
+      <c r="AT54" s="15"/>
+      <c r="AU54" s="15"/>
+      <c r="AV54" s="15"/>
+      <c r="AW54" s="15"/>
+      <c r="AX54" s="15"/>
+      <c r="AY54" s="15"/>
+      <c r="AZ54" s="15"/>
+      <c r="BA54" s="15"/>
+      <c r="BB54" s="15"/>
+      <c r="BC54" s="15"/>
+      <c r="BD54" s="15"/>
+      <c r="BE54" s="15"/>
+      <c r="BF54" s="15"/>
+      <c r="BG54" s="15"/>
+      <c r="BH54" s="15"/>
+      <c r="BI54" s="15"/>
+      <c r="BJ54" s="15"/>
+      <c r="BK54" s="15"/>
+      <c r="BL54" s="15"/>
+      <c r="BM54" s="15"/>
+      <c r="BN54" s="15"/>
+      <c r="BO54" s="15"/>
+      <c r="BP54" s="15"/>
+      <c r="BQ54" s="14"/>
+      <c r="BR54" s="15"/>
+      <c r="BS54" s="15"/>
+      <c r="BT54" s="15"/>
+      <c r="BU54" s="15"/>
+      <c r="BV54" s="15"/>
+      <c r="BW54" s="15"/>
+      <c r="BX54" s="15"/>
+      <c r="BY54" s="15"/>
+    </row>
+    <row r="55" spans="17:77" x14ac:dyDescent="0.2">
       <c r="Q55">
         <v>50</v>
       </c>
-      <c r="R55" s="2" t="s">
+      <c r="R55" s="22" t="s">
         <v>52</v>
       </c>
       <c r="S55" s="2">
         <v>4</v>
       </c>
-      <c r="T55" s="22"/>
+      <c r="T55" s="12"/>
       <c r="U55" s="15"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
-      <c r="AA55" s="21"/>
-      <c r="AB55" s="21"/>
-      <c r="AC55" s="21"/>
-      <c r="AD55" s="21"/>
-      <c r="AE55" s="21"/>
-      <c r="AF55" s="21"/>
-      <c r="AG55" s="21"/>
-      <c r="AH55" s="21"/>
-      <c r="AI55" s="21"/>
-      <c r="AJ55" s="21"/>
-      <c r="AK55" s="21"/>
-      <c r="AL55" s="21"/>
-      <c r="AM55" s="21"/>
-      <c r="AN55" s="21"/>
-      <c r="AO55" s="21"/>
-      <c r="AP55" s="21"/>
-      <c r="AQ55" s="21"/>
-      <c r="AR55" s="21"/>
-      <c r="AS55" s="21"/>
-      <c r="AT55" s="21"/>
-      <c r="AU55" s="21"/>
-      <c r="AV55" s="21"/>
-      <c r="AW55" s="21"/>
-      <c r="AX55" s="21"/>
-      <c r="AY55" s="21"/>
-      <c r="AZ55" s="21"/>
-      <c r="BA55" s="21"/>
-      <c r="BB55" s="21"/>
-      <c r="BC55" s="21"/>
-      <c r="BD55" s="21"/>
-      <c r="BE55" s="21"/>
-      <c r="BF55" s="21"/>
-      <c r="BG55" s="21"/>
-      <c r="BH55" s="21"/>
-      <c r="BI55" s="21"/>
-      <c r="BJ55" s="21"/>
-      <c r="BK55" s="21"/>
-      <c r="BL55" s="21"/>
-      <c r="BM55" s="21"/>
-      <c r="BN55" s="21"/>
-      <c r="BO55" s="21"/>
-      <c r="BP55" s="21"/>
-      <c r="BQ55" s="21"/>
-      <c r="BR55" s="21"/>
-      <c r="BS55" s="21"/>
-      <c r="BT55" s="21"/>
-    </row>
-    <row r="56" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="15"/>
+      <c r="AF55" s="15"/>
+      <c r="AG55" s="15"/>
+      <c r="AH55" s="15"/>
+      <c r="AI55" s="15"/>
+      <c r="AJ55" s="15"/>
+      <c r="AK55" s="15"/>
+      <c r="AL55" s="15"/>
+      <c r="AM55" s="15"/>
+      <c r="AN55" s="15"/>
+      <c r="AO55" s="15"/>
+      <c r="AP55" s="15"/>
+      <c r="AQ55" s="15"/>
+      <c r="AR55" s="15"/>
+      <c r="AS55" s="15"/>
+      <c r="AT55" s="15"/>
+      <c r="AU55" s="15"/>
+      <c r="AV55" s="15"/>
+      <c r="AW55" s="15"/>
+      <c r="AX55" s="15"/>
+      <c r="AY55" s="15"/>
+      <c r="AZ55" s="15"/>
+      <c r="BA55" s="15"/>
+      <c r="BB55" s="15"/>
+      <c r="BC55" s="15"/>
+      <c r="BD55" s="15"/>
+      <c r="BE55" s="15"/>
+      <c r="BF55" s="15"/>
+      <c r="BG55" s="15"/>
+      <c r="BH55" s="15"/>
+      <c r="BI55" s="15"/>
+      <c r="BJ55" s="15"/>
+      <c r="BK55" s="15"/>
+      <c r="BL55" s="15"/>
+      <c r="BM55" s="15"/>
+      <c r="BN55" s="15"/>
+      <c r="BO55" s="15"/>
+      <c r="BP55" s="15"/>
+      <c r="BQ55" s="15"/>
+      <c r="BR55" s="14"/>
+      <c r="BS55" s="15"/>
+      <c r="BT55" s="15"/>
+      <c r="BU55" s="15"/>
+      <c r="BV55" s="15"/>
+      <c r="BW55" s="15"/>
+      <c r="BX55" s="15"/>
+      <c r="BY55" s="15"/>
+    </row>
+    <row r="56" spans="17:77" x14ac:dyDescent="0.2">
       <c r="Q56">
         <v>51</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="R56" s="22" t="s">
         <v>53</v>
       </c>
       <c r="S56" s="2">
         <v>6</v>
       </c>
-      <c r="T56" s="22"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="21"/>
-      <c r="AB56" s="21"/>
-      <c r="AC56" s="21"/>
-      <c r="AD56" s="21"/>
-      <c r="AE56" s="21"/>
-      <c r="AF56" s="21"/>
-      <c r="AG56" s="21"/>
-      <c r="AH56" s="21"/>
-      <c r="AI56" s="21"/>
-      <c r="AJ56" s="21"/>
-      <c r="AK56" s="21"/>
-      <c r="AL56" s="21"/>
-      <c r="AM56" s="21"/>
-      <c r="AN56" s="21"/>
-      <c r="AO56" s="21"/>
-      <c r="AP56" s="21"/>
-      <c r="AQ56" s="21"/>
-      <c r="AR56" s="21"/>
-      <c r="AS56" s="21"/>
-      <c r="AT56" s="21"/>
-      <c r="AU56" s="21"/>
-      <c r="AV56" s="21"/>
-      <c r="AW56" s="21"/>
-      <c r="AX56" s="21"/>
-      <c r="AY56" s="21"/>
-      <c r="AZ56" s="21"/>
-      <c r="BA56" s="21"/>
-      <c r="BB56" s="21"/>
-      <c r="BC56" s="21"/>
-      <c r="BD56" s="21"/>
-      <c r="BE56" s="21"/>
-      <c r="BF56" s="21"/>
-      <c r="BG56" s="21"/>
-      <c r="BH56" s="21"/>
-      <c r="BI56" s="21"/>
-      <c r="BJ56" s="21"/>
-      <c r="BK56" s="21"/>
-      <c r="BL56" s="21"/>
-      <c r="BM56" s="21"/>
-      <c r="BN56" s="21"/>
-      <c r="BO56" s="21"/>
-      <c r="BP56" s="21"/>
-      <c r="BQ56" s="21"/>
-      <c r="BR56" s="21"/>
-      <c r="BS56" s="21"/>
-      <c r="BT56" s="21"/>
-    </row>
-    <row r="57" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="T56" s="12"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="15"/>
+      <c r="AG56" s="15"/>
+      <c r="AH56" s="15"/>
+      <c r="AI56" s="15"/>
+      <c r="AJ56" s="15"/>
+      <c r="AK56" s="15"/>
+      <c r="AL56" s="15"/>
+      <c r="AM56" s="15"/>
+      <c r="AN56" s="15"/>
+      <c r="AO56" s="15"/>
+      <c r="AP56" s="15"/>
+      <c r="AQ56" s="15"/>
+      <c r="AR56" s="15"/>
+      <c r="AS56" s="15"/>
+      <c r="AT56" s="15"/>
+      <c r="AU56" s="15"/>
+      <c r="AV56" s="15"/>
+      <c r="AW56" s="15"/>
+      <c r="AX56" s="15"/>
+      <c r="AY56" s="15"/>
+      <c r="AZ56" s="15"/>
+      <c r="BA56" s="15"/>
+      <c r="BB56" s="15"/>
+      <c r="BC56" s="15"/>
+      <c r="BD56" s="15"/>
+      <c r="BE56" s="15"/>
+      <c r="BF56" s="15"/>
+      <c r="BG56" s="15"/>
+      <c r="BH56" s="15"/>
+      <c r="BI56" s="15"/>
+      <c r="BJ56" s="15"/>
+      <c r="BK56" s="15"/>
+      <c r="BL56" s="15"/>
+      <c r="BM56" s="15"/>
+      <c r="BN56" s="15"/>
+      <c r="BO56" s="15"/>
+      <c r="BP56" s="15"/>
+      <c r="BQ56" s="15"/>
+      <c r="BR56" s="15"/>
+      <c r="BS56" s="14"/>
+      <c r="BT56" s="15"/>
+      <c r="BU56" s="15"/>
+      <c r="BV56" s="15"/>
+      <c r="BW56" s="15"/>
+      <c r="BX56" s="15"/>
+      <c r="BY56" s="15"/>
+    </row>
+    <row r="57" spans="17:77" x14ac:dyDescent="0.2">
       <c r="Q57">
         <v>52</v>
       </c>
-      <c r="R57" s="2" t="s">
+      <c r="R57" s="22" t="s">
         <v>54</v>
       </c>
       <c r="S57" s="2">
         <v>4</v>
       </c>
-      <c r="T57" s="20"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="21"/>
-      <c r="Z57" s="21"/>
-      <c r="AA57" s="21"/>
-      <c r="AB57" s="21"/>
-      <c r="AC57" s="21"/>
-      <c r="AD57" s="21"/>
-      <c r="AE57" s="21"/>
-      <c r="AF57" s="21"/>
-      <c r="AG57" s="21"/>
-      <c r="AH57" s="21"/>
-      <c r="AI57" s="21"/>
-      <c r="AJ57" s="21"/>
-      <c r="AK57" s="21"/>
-      <c r="AL57" s="21"/>
-      <c r="AM57" s="21"/>
-      <c r="AN57" s="21"/>
-      <c r="AO57" s="21"/>
-      <c r="AP57" s="21"/>
-      <c r="AQ57" s="21"/>
-      <c r="AR57" s="21"/>
-      <c r="AS57" s="21"/>
-      <c r="AT57" s="21"/>
-      <c r="AU57" s="21"/>
-      <c r="AV57" s="21"/>
-      <c r="AW57" s="21"/>
-      <c r="AX57" s="21"/>
-      <c r="AY57" s="21"/>
-      <c r="AZ57" s="21"/>
-      <c r="BA57" s="21"/>
-      <c r="BB57" s="21"/>
-      <c r="BC57" s="21"/>
-      <c r="BD57" s="21"/>
-      <c r="BE57" s="21"/>
-      <c r="BF57" s="21"/>
-      <c r="BG57" s="21"/>
-      <c r="BH57" s="21"/>
-      <c r="BI57" s="21"/>
-      <c r="BJ57" s="21"/>
-      <c r="BK57" s="21"/>
-      <c r="BL57" s="21"/>
-      <c r="BM57" s="21"/>
-      <c r="BN57" s="21"/>
-      <c r="BO57" s="21"/>
-      <c r="BP57" s="21"/>
-      <c r="BQ57" s="21"/>
-      <c r="BR57" s="21"/>
-      <c r="BS57" s="21"/>
-      <c r="BT57" s="21"/>
-    </row>
-    <row r="58" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="T57" s="12"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="15"/>
+      <c r="AD57" s="15"/>
+      <c r="AE57" s="15"/>
+      <c r="AF57" s="15"/>
+      <c r="AG57" s="15"/>
+      <c r="AH57" s="15"/>
+      <c r="AI57" s="15"/>
+      <c r="AJ57" s="15"/>
+      <c r="AK57" s="15"/>
+      <c r="AL57" s="15"/>
+      <c r="AM57" s="15"/>
+      <c r="AN57" s="15"/>
+      <c r="AO57" s="15"/>
+      <c r="AP57" s="15"/>
+      <c r="AQ57" s="15"/>
+      <c r="AR57" s="15"/>
+      <c r="AS57" s="15"/>
+      <c r="AT57" s="15"/>
+      <c r="AU57" s="15"/>
+      <c r="AV57" s="15"/>
+      <c r="AW57" s="15"/>
+      <c r="AX57" s="15"/>
+      <c r="AY57" s="15"/>
+      <c r="AZ57" s="15"/>
+      <c r="BA57" s="15"/>
+      <c r="BB57" s="15"/>
+      <c r="BC57" s="15"/>
+      <c r="BD57" s="15"/>
+      <c r="BE57" s="15"/>
+      <c r="BF57" s="15"/>
+      <c r="BG57" s="15"/>
+      <c r="BH57" s="15"/>
+      <c r="BI57" s="15"/>
+      <c r="BJ57" s="15"/>
+      <c r="BK57" s="15"/>
+      <c r="BL57" s="15"/>
+      <c r="BM57" s="15"/>
+      <c r="BN57" s="15"/>
+      <c r="BO57" s="15"/>
+      <c r="BP57" s="15"/>
+      <c r="BQ57" s="15"/>
+      <c r="BR57" s="15"/>
+      <c r="BS57" s="15"/>
+      <c r="BT57" s="14"/>
+      <c r="BU57" s="15"/>
+      <c r="BV57" s="15"/>
+      <c r="BW57" s="15"/>
+      <c r="BX57" s="15"/>
+      <c r="BY57" s="15"/>
+    </row>
+    <row r="58" spans="17:77" x14ac:dyDescent="0.2">
+      <c r="Q58">
+        <v>53</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S58" s="2">
+        <v>1</v>
+      </c>
       <c r="T58" s="12"/>
       <c r="U58" s="15"/>
       <c r="V58" s="15"/>
@@ -4861,8 +5029,22 @@
       <c r="BR58" s="15"/>
       <c r="BS58" s="15"/>
       <c r="BT58" s="15"/>
-    </row>
-    <row r="59" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="BU58" s="15"/>
+      <c r="BV58" s="15"/>
+      <c r="BW58" s="15"/>
+      <c r="BX58" s="15"/>
+      <c r="BY58" s="15"/>
+    </row>
+    <row r="59" spans="17:77" x14ac:dyDescent="0.2">
+      <c r="Q59">
+        <v>54</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S59" s="2">
+        <v>1</v>
+      </c>
       <c r="T59" s="12"/>
       <c r="U59" s="15"/>
       <c r="V59" s="15"/>
@@ -4916,8 +5098,22 @@
       <c r="BR59" s="15"/>
       <c r="BS59" s="15"/>
       <c r="BT59" s="15"/>
-    </row>
-    <row r="60" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="BU59" s="15"/>
+      <c r="BV59" s="15"/>
+      <c r="BW59" s="15"/>
+      <c r="BX59" s="15"/>
+      <c r="BY59" s="15"/>
+    </row>
+    <row r="60" spans="17:77" x14ac:dyDescent="0.2">
+      <c r="Q60">
+        <v>55</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S60" s="2">
+        <v>1</v>
+      </c>
       <c r="T60" s="12"/>
       <c r="U60" s="15"/>
       <c r="V60" s="15"/>
@@ -4971,8 +5167,22 @@
       <c r="BR60" s="15"/>
       <c r="BS60" s="15"/>
       <c r="BT60" s="15"/>
-    </row>
-    <row r="61" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="BU60" s="15"/>
+      <c r="BV60" s="15"/>
+      <c r="BW60" s="15"/>
+      <c r="BX60" s="15"/>
+      <c r="BY60" s="15"/>
+    </row>
+    <row r="61" spans="17:77" x14ac:dyDescent="0.2">
+      <c r="Q61">
+        <v>56</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S61" s="2">
+        <v>1</v>
+      </c>
       <c r="T61" s="12"/>
       <c r="U61" s="15"/>
       <c r="V61" s="15"/>
@@ -5026,8 +5236,13 @@
       <c r="BR61" s="15"/>
       <c r="BS61" s="15"/>
       <c r="BT61" s="15"/>
-    </row>
-    <row r="62" spans="17:72" x14ac:dyDescent="0.2">
+      <c r="BU61" s="15"/>
+      <c r="BV61" s="15"/>
+      <c r="BW61" s="15"/>
+      <c r="BX61" s="15"/>
+      <c r="BY61" s="15"/>
+    </row>
+    <row r="62" spans="17:77" x14ac:dyDescent="0.2">
       <c r="T62" s="12"/>
       <c r="U62" s="15"/>
       <c r="V62" s="15"/>
@@ -5082,7 +5297,7 @@
       <c r="BS62" s="15"/>
       <c r="BT62" s="15"/>
     </row>
-    <row r="63" spans="17:72" x14ac:dyDescent="0.2">
+    <row r="63" spans="17:77" x14ac:dyDescent="0.2">
       <c r="T63" s="12"/>
       <c r="U63" s="15"/>
       <c r="V63" s="15"/>
@@ -5137,7 +5352,7 @@
       <c r="BS63" s="15"/>
       <c r="BT63" s="15"/>
     </row>
-    <row r="64" spans="17:72" x14ac:dyDescent="0.2">
+    <row r="64" spans="17:77" x14ac:dyDescent="0.2">
       <c r="T64" s="12"/>
       <c r="U64" s="15"/>
       <c r="V64" s="15"/>
@@ -5358,8 +5573,6 @@
       <c r="BT67" s="15"/>
     </row>
     <row r="68" spans="20:72" x14ac:dyDescent="0.2">
-      <c r="T68" s="12"/>
-      <c r="U68" s="15"/>
       <c r="V68" s="15"/>
       <c r="W68" s="15"/>
       <c r="X68" s="15"/>
